--- a/src/attributions/attributions_ig_traj_316.xlsx
+++ b/src/attributions/attributions_ig_traj_316.xlsx
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>-0</v>
@@ -1603,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>-0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
         <v>-0</v>
@@ -1684,13 +1684,13 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>-0</v>
@@ -1711,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX3" t="n">
         <v>-0</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
         <v>-0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
         <v>-0</v>
@@ -1792,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY3" t="n">
         <v>-0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="n">
         <v>-0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
         <v>-0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
         <v>0</v>
       </c>
       <c r="DH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI3" t="n">
         <v>-0</v>
@@ -1927,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
         <v>-0</v>
@@ -1981,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ3" t="n">
         <v>-0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
         <v>-0</v>
@@ -2035,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
         <v>-0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI3" t="n">
         <v>0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
         <v>-0</v>
@@ -2145,19 +2145,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.04954242227247402</v>
+        <v>0.03861353294707094</v>
       </c>
       <c r="C4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07785410308461879</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02653308675008849</v>
+        <v>-0.005276532427423505</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0.02539236421187406</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
@@ -2172,76 +2172,76 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.03499783747653741</v>
+        <v>0.01379460874812149</v>
       </c>
       <c r="L4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01975150858420878</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.007673168090225973</v>
+        <v>-0.005671419435010896</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-0.01989289377470765</v>
       </c>
       <c r="P4" t="n">
         <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R4" t="n">
         <v>-0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.003610306032667128</v>
+        <v>-1.253929655144949e-05</v>
       </c>
       <c r="U4" t="n">
         <v>-0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.005172551391408965</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02925755431293471</v>
+        <v>0.002927022325143602</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-0.004727342391754981</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.06210689827413076</v>
+        <v>0.007052126242695159</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0789414642327412</v>
+        <v>-0</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.05053578054940239</v>
+        <v>0.02310117333913242</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>-0.0008527938949992792</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
@@ -2253,46 +2253,46 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.06174633519660138</v>
+        <v>0.006168509468720757</v>
       </c>
       <c r="AM4" t="n">
         <v>-0</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.007723374437120894</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.01728415902796785</v>
+        <v>-0.01142102683163243</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0</v>
+        <v>-0.01092719860538359</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.1771339081583937</v>
+        <v>0.05470647164513908</v>
       </c>
       <c r="AV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.03348186722364957</v>
+        <v>-0</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.0363691391386381</v>
+        <v>-0.001846825692363793</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0.03964168295701465</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
@@ -2304,22 +2304,22 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.002763851673234043</v>
+        <v>0.006662008606174412</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.01780949919727236</v>
+        <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.003013433943375103</v>
+        <v>-0.004600268964489202</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>0.002721354247991698</v>
       </c>
       <c r="BI4" t="n">
         <v>-0</v>
@@ -2334,19 +2334,19 @@
         <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.06934202079146297</v>
+        <v>0.021183542709932</v>
       </c>
       <c r="BN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.04487944657166491</v>
+        <v>0</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.01110917355612787</v>
+        <v>-0.001891528479705529</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0</v>
+        <v>0.01279605630331458</v>
       </c>
       <c r="BR4" t="n">
         <v>-0</v>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.01810190837293472</v>
+        <v>0.02914493717491839</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.05799374402886287</v>
+        <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.002815188385269821</v>
+        <v>-0.00646705702208672</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>0.004254766081998416</v>
       </c>
       <c r="CA4" t="n">
         <v>0</v>
@@ -2382,25 +2382,25 @@
         <v>0</v>
       </c>
       <c r="CC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.0511896473767324</v>
+        <v>-0.008842136608880675</v>
       </c>
       <c r="CF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.02773553822450507</v>
+        <v>0</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.01324425247644768</v>
+        <v>-0.003656664493049632</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0</v>
+        <v>0.02431223590046886</v>
       </c>
       <c r="CJ4" t="n">
         <v>0</v>
@@ -2415,19 +2415,19 @@
         <v>-0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.01808942198712379</v>
+        <v>0.001889165091511889</v>
       </c>
       <c r="CO4" t="n">
         <v>-0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.009854234833198401</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.08547315186718274</v>
+        <v>0.007976712907845133</v>
       </c>
       <c r="CR4" t="n">
-        <v>0</v>
+        <v>-0.007423918844361335</v>
       </c>
       <c r="CS4" t="n">
         <v>-0</v>
@@ -2439,76 +2439,76 @@
         <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.05501755483621735</v>
+        <v>-0.006524673286280014</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0.02657107396967725</v>
+        <v>-0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.006699332213047715</v>
+        <v>-0.004113090764874826</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0</v>
+        <v>0.0259473737194616</v>
       </c>
       <c r="DB4" t="n">
         <v>-0</v>
       </c>
       <c r="DC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.1496727803089422</v>
+        <v>-0.0115071602606346</v>
       </c>
       <c r="DG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.02350159611513647</v>
+        <v>-0</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.001985735110393671</v>
+        <v>0.01490431191527703</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0</v>
+        <v>0.04330166262022572</v>
       </c>
       <c r="DK4" t="n">
         <v>0</v>
       </c>
       <c r="DL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM4" t="n">
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.02866994834144397</v>
+        <v>-0.004148577184107919</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.007531642884375623</v>
+        <v>-0</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.08730670280710325</v>
+        <v>0.008121536343683551</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0.00193228121266712</v>
       </c>
       <c r="DT4" t="n">
         <v>0</v>
@@ -2517,25 +2517,25 @@
         <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.08841220505285345</v>
+        <v>0.002527108708970274</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.06853187740362884</v>
+        <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.01126020558776292</v>
+        <v>-0.009194774617788882</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0</v>
+        <v>-0.02084577538227626</v>
       </c>
       <c r="EC4" t="n">
         <v>-0</v>
@@ -2547,28 +2547,28 @@
         <v>-0</v>
       </c>
       <c r="EF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.03678190811804572</v>
+        <v>-0.002173243774021946</v>
       </c>
       <c r="EH4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.01735647140096825</v>
+        <v>0</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.09797494927253989</v>
+        <v>-0.003930032738857992</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0</v>
+        <v>0.01260477785563613</v>
       </c>
       <c r="EL4" t="n">
         <v>0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
         <v>0</v>
@@ -2577,19 +2577,19 @@
         <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.02086819500266626</v>
+        <v>-0.001059538363532831</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.002366178735829566</v>
+        <v>0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.067845057159963</v>
+        <v>-0.005761741619455478</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>0.02885919399575161</v>
       </c>
       <c r="EU4" t="n">
         <v>-0</v>
@@ -2598,79 +2598,79 @@
         <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.0458339548967263</v>
+        <v>-0.007071451334790081</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0.01595529742867533</v>
+        <v>0</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.01702094424503139</v>
+        <v>-0.00129655348315024</v>
       </c>
       <c r="FC4" t="n">
-        <v>0</v>
+        <v>0.02560586054948842</v>
       </c>
       <c r="FD4" t="n">
         <v>0</v>
       </c>
       <c r="FE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
         <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.0140126855008006</v>
+        <v>-0.009628971536239277</v>
       </c>
       <c r="FI4" t="n">
         <v>0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0.009287696570065946</v>
+        <v>-0</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.01701517089482616</v>
+        <v>-0.01652807382550421</v>
       </c>
       <c r="FL4" t="n">
-        <v>0</v>
+        <v>0.003638548315265669</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO4" t="n">
         <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0.004905058784169872</v>
+        <v>-0.001102977925613183</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.08102953177500451</v>
+        <v>-0</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.01379394093761232</v>
+        <v>-0.01317953042564743</v>
       </c>
       <c r="FU4" t="n">
-        <v>0</v>
+        <v>0.01401387099279632</v>
       </c>
       <c r="FV4" t="n">
         <v>-0</v>
@@ -2679,31 +2679,31 @@
         <v>-0</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
         <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.0293847515977981</v>
+        <v>-0.01883095932802459</v>
       </c>
       <c r="GA4" t="n">
         <v>0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.07141956776047115</v>
+        <v>-0</v>
       </c>
       <c r="GC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD4" t="n">
-        <v>-0</v>
+        <v>-0.008247301157067378</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
         <v>0</v>
@@ -2714,25 +2714,25 @@
         <v>-0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.08448709830620459</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04319328570825843</v>
+        <v>-0.02786977553366855</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03787645383862009</v>
+        <v>-0.0305102295231295</v>
       </c>
       <c r="F5" t="n">
         <v>-0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.01517482269268896</v>
+        <v>-0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2741,16 +2741,16 @@
         <v>-0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.02947178552890657</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004942608850122304</v>
+        <v>0.007447429405822174</v>
       </c>
       <c r="N5" t="n">
-        <v>0.007275046245683662</v>
+        <v>-0.02883627110379305</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -2759,52 +2759,52 @@
         <v>-0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.005619102028147792</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>2.042734425453061e-11</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
-        <v>-9.992486097460331e-12</v>
+        <v>-8.811750641239269e-12</v>
       </c>
       <c r="W5" t="n">
-        <v>0.008826669823559166</v>
+        <v>-0.005439004691367176</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-8.647746237459984e-12</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.004436310168589842</v>
       </c>
       <c r="AD5" t="n">
         <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.03382551450208363</v>
+        <v>0.02252246465259293</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.02353388924604482</v>
+        <v>0.04877508477370974</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0377310088006859</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
         <v>-0</v>
@@ -2822,25 +2822,25 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>-0.009100772465002053</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.04268082082109409</v>
+        <v>-0.03607513824239714</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.02950966255768225</v>
+        <v>-0.05871639235244757</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
         <v>-0</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.01509770910546236</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.2899931191746864</v>
       </c>
       <c r="AV5" t="n">
         <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.05443034975115179</v>
+        <v>0.05440847482512166</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.08051220729548983</v>
+        <v>0.1626639365008442</v>
       </c>
       <c r="AY5" t="n">
         <v>-0</v>
@@ -2867,79 +2867,79 @@
         <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.0586914750974723</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>-0.01541735200783675</v>
       </c>
       <c r="BE5" t="n">
         <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.002890837852230176</v>
+        <v>-0.02383828119269199</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.002653777782372379</v>
+        <v>-0.0125802110389363</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.002935008192554411</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="n">
         <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.06892545366631524</v>
       </c>
       <c r="BN5" t="n">
         <v>-0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.02007722397826171</v>
+        <v>0.02811442983746073</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.01066073866445592</v>
+        <v>0.1211857235338337</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR5" t="n">
         <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.06765514455129951</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.154586894499396</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.05971501686853762</v>
+        <v>0.03147257965239317</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.05469802495163422</v>
+        <v>0.0203944431489949</v>
       </c>
       <c r="BZ5" t="n">
         <v>-0</v>
@@ -2948,115 +2948,115 @@
         <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>-0.05029497397049522</v>
+        <v>-0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD5" t="n">
         <v>0</v>
       </c>
       <c r="CE5" t="n">
-        <v>-0</v>
+        <v>-0.0249251878051573</v>
       </c>
       <c r="CF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0.03481143004477138</v>
+        <v>0.01212960627325187</v>
       </c>
       <c r="CH5" t="n">
-        <v>-0.002941342211396207</v>
+        <v>-0.001455814260402229</v>
       </c>
       <c r="CI5" t="n">
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.01073901544936917</v>
+        <v>0</v>
       </c>
       <c r="CL5" t="n">
         <v>-0</v>
       </c>
       <c r="CM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>-0.01993856824918178</v>
       </c>
       <c r="CO5" t="n">
         <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0.02284638816950621</v>
+        <v>-0.03477290511058178</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.0197316692821886</v>
+        <v>-0.1415269911662926</v>
       </c>
       <c r="CR5" t="n">
         <v>0</v>
       </c>
       <c r="CS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.001809138594240662</v>
+        <v>-0</v>
       </c>
       <c r="CU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>0</v>
+        <v>-0.01287838832630447</v>
       </c>
       <c r="CX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0.02946103367689178</v>
+        <v>0.02395415254219926</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.004638242704786652</v>
+        <v>0.01973920793089495</v>
       </c>
       <c r="DA5" t="n">
         <v>-0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
-        <v>-0.003831490052942909</v>
+        <v>0</v>
       </c>
       <c r="DD5" t="n">
         <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF5" t="n">
-        <v>-0</v>
+        <v>-0.001479911612681613</v>
       </c>
       <c r="DG5" t="n">
         <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>-0.002435744380593897</v>
+        <v>0.01532916273055872</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.01264000027501927</v>
+        <v>-0.02793624540504774</v>
       </c>
       <c r="DJ5" t="n">
         <v>0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>-0.01156578854922328</v>
+        <v>0</v>
       </c>
       <c r="DM5" t="n">
         <v>0</v>
@@ -3065,16 +3065,16 @@
         <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.07140241514980719</v>
       </c>
       <c r="DP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>-0.01649387523855297</v>
+        <v>-0.0007304147547142439</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.02118444859989899</v>
+        <v>0.01195630204819023</v>
       </c>
       <c r="DS5" t="n">
         <v>0</v>
@@ -3083,61 +3083,61 @@
         <v>0</v>
       </c>
       <c r="DU5" t="n">
-        <v>-0.004902508423111531</v>
+        <v>-0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>0.001916730661515114</v>
       </c>
       <c r="DY5" t="n">
         <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.007034354220241636</v>
+        <v>-0.0380778680897892</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.01054145715946605</v>
+        <v>-0.02040796799145321</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.05022743487285461</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF5" t="n">
         <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>-0</v>
+        <v>-0.0280710494967211</v>
       </c>
       <c r="EH5" t="n">
         <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0.03291448594730592</v>
+        <v>0.01440671169675183</v>
       </c>
       <c r="EJ5" t="n">
-        <v>-0.05555212984250614</v>
+        <v>0.05314423097666537</v>
       </c>
       <c r="EK5" t="n">
         <v>0</v>
       </c>
       <c r="EL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.02154819359797791</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
         <v>-0</v>
@@ -3146,25 +3146,25 @@
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.02768072988059273</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0.03838586896923141</v>
+        <v>0.03212079558242339</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.02801773020894231</v>
+        <v>-0.02864617831363411</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0.03523800714382756</v>
+        <v>-0</v>
       </c>
       <c r="EW5" t="n">
         <v>-0</v>
@@ -3173,25 +3173,25 @@
         <v>0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0.01901962561049784</v>
       </c>
       <c r="EZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0.02239718561287982</v>
+        <v>0.02658628512584578</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.003299903777096383</v>
+        <v>0.01545247591283949</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.008194844480016216</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
         <v>-0</v>
@@ -3200,108 +3200,108 @@
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>-0</v>
+        <v>0.04992584196316089</v>
       </c>
       <c r="FI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>-0.02266765588126474</v>
+        <v>-0.0453617353156317</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.04831424864336278</v>
+        <v>0.02226105356152701</v>
       </c>
       <c r="FL5" t="n">
         <v>-0</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.03045060746877343</v>
+        <v>0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.09021693348759388</v>
       </c>
       <c r="FR5" t="n">
         <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>-0.0001796647982715349</v>
+        <v>0.05084960221248787</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.03932236737270376</v>
+        <v>0.06344617547041068</v>
       </c>
       <c r="FU5" t="n">
         <v>0</v>
       </c>
       <c r="FV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.03432604153190947</v>
+        <v>0</v>
       </c>
       <c r="FX5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
         <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>-0</v>
+        <v>-0.01243436855925006</v>
       </c>
       <c r="GA5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>-0.04029720433659791</v>
+        <v>-0.01599230979825867</v>
       </c>
       <c r="GC5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE5" t="n">
         <v>-0</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.01247865646287538</v>
+        <v>-0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.01709085521257797</v>
+        <v>0.01664923530466404</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08886011501559439</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01506769162472187</v>
+        <v>-0.01045258823172225</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>-0.002477909982477682</v>
       </c>
       <c r="G6" t="n">
         <v>-0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -3310,76 +3310,76 @@
         <v>-0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.007803244527617657</v>
+        <v>0.004127545552203832</v>
       </c>
       <c r="L6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03728085155792941</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.002029861499122828</v>
+        <v>-0.008719310704894423</v>
       </c>
       <c r="O6" t="n">
-        <v>-0</v>
+        <v>-0.001400011342580543</v>
       </c>
       <c r="P6" t="n">
         <v>-0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.002984646674744191</v>
+        <v>2.381491629216613e-05</v>
       </c>
       <c r="U6" t="n">
         <v>-0</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.007206866840463831</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-5.395679785146172e-11</v>
+        <v>-5.227018458916527e-12</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-0.003435149859108066</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.0317461539781928</v>
+        <v>0.01241463141599104</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.07042160292808143</v>
+        <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.01816800355583447</v>
+        <v>0.01134507365079849</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>-9.123156602400261e-05</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
@@ -3391,46 +3391,46 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.03578677040318758</v>
+        <v>0.005186977387503058</v>
       </c>
       <c r="AM6" t="n">
         <v>-0</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.008959418015899343</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.007538227454621043</v>
+        <v>-0.01906639628305302</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>-0.005027499552368327</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.1455152931761561</v>
+        <v>0.03768763401701408</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.02472167354881233</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.04245401643138585</v>
+        <v>-0.012373201578964</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.006177742337163695</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
@@ -3439,25 +3439,25 @@
         <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC6" t="n">
         <v>-0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.01952351406958848</v>
+        <v>0.002262475740561792</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.02900623176301091</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.004968628291659625</v>
+        <v>-0.005056359545989117</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>0.001994314521051327</v>
       </c>
       <c r="BI6" t="n">
         <v>-0</v>
@@ -3466,28 +3466,28 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.04752907809244471</v>
+        <v>0.02341681351247221</v>
       </c>
       <c r="BN6" t="n">
         <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.04169779953560093</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.03952511064054516</v>
+        <v>0.01040078194045738</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0</v>
+        <v>0.0105759473226288</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
         <v>0</v>
@@ -3496,160 +3496,160 @@
         <v>0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV6" t="n">
-        <v>-0.01540186782498245</v>
+        <v>0.01752375341390967</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.04573585245569214</v>
+        <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>-0.006212394888952825</v>
+        <v>-0.008035965353252936</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-0</v>
+        <v>0.01902415782307544</v>
       </c>
       <c r="CA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.036466882705941</v>
+        <v>0.0009396198720446748</v>
       </c>
       <c r="CF6" t="n">
         <v>-0</v>
       </c>
       <c r="CG6" t="n">
-        <v>-0.03502669246143007</v>
+        <v>0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.0201998502533159</v>
+        <v>0.001265102301200815</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.00516011414307044</v>
       </c>
       <c r="CJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK6" t="n">
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.04365772006777722</v>
+        <v>0.003012793553904942</v>
       </c>
       <c r="CO6" t="n">
         <v>-0</v>
       </c>
       <c r="CP6" t="n">
-        <v>-0.02252860411923221</v>
+        <v>-0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.08153354171201713</v>
+        <v>-0.0001611915406061993</v>
       </c>
       <c r="CR6" t="n">
-        <v>0</v>
+        <v>-0.01549277932784901</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.03717647556656648</v>
+        <v>0.004370593022699762</v>
       </c>
       <c r="CX6" t="n">
         <v>0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0.03180535911364261</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.01130549150794338</v>
+        <v>0.002097486081708762</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0.005710518806811176</v>
       </c>
       <c r="DB6" t="n">
         <v>-0</v>
       </c>
       <c r="DC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE6" t="n">
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.1010347706512742</v>
+        <v>0.001987215268027764</v>
       </c>
       <c r="DG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH6" t="n">
-        <v>-0.008755947693453317</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.0001591474942888333</v>
+        <v>8.67059149038475e-05</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0</v>
+        <v>0.01237432096763877</v>
       </c>
       <c r="DK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM6" t="n">
         <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>-0.0081421517973914</v>
+        <v>0.003830298588681193</v>
       </c>
       <c r="DP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.005073151381325419</v>
+        <v>-0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.06933822945929431</v>
+        <v>0.01028071538605144</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>0.00497338858561754</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU6" t="n">
         <v>0</v>
@@ -3658,49 +3658,49 @@
         <v>-0</v>
       </c>
       <c r="DW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.02745279145847138</v>
+        <v>-0.01389042070268526</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.04165592002259354</v>
+        <v>0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.0014022587468811</v>
+        <v>-0.01077654224419827</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>-0.001274202522548146</v>
       </c>
       <c r="EC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
       </c>
       <c r="EE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.03614654459018913</v>
+        <v>0.002312629102065329</v>
       </c>
       <c r="EH6" t="n">
         <v>-0</v>
       </c>
       <c r="EI6" t="n">
-        <v>-0.03970134526508207</v>
+        <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>-0.05859146266427794</v>
+        <v>0.003910800276870598</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>0.003350185419914363</v>
       </c>
       <c r="EL6" t="n">
         <v>0</v>
@@ -3715,22 +3715,22 @@
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.01174676294034871</v>
+        <v>0.003265828115631627</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
       </c>
       <c r="ER6" t="n">
-        <v>-0.003349390782286755</v>
+        <v>0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.03723516304751379</v>
+        <v>-0.009237966621120332</v>
       </c>
       <c r="ET6" t="n">
-        <v>0</v>
+        <v>0.03245001386739178</v>
       </c>
       <c r="EU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV6" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.0304387557861853</v>
+        <v>0.005896815329702098</v>
       </c>
       <c r="EZ6" t="n">
         <v>-0</v>
       </c>
       <c r="FA6" t="n">
-        <v>-0.0249147139580667</v>
+        <v>0</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.02361552232850425</v>
+        <v>0.002632832250342733</v>
       </c>
       <c r="FC6" t="n">
-        <v>0</v>
+        <v>0.00748874728956123</v>
       </c>
       <c r="FD6" t="n">
         <v>0</v>
@@ -3766,55 +3766,55 @@
         <v>-0</v>
       </c>
       <c r="FG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0.02847061527870613</v>
+        <v>-0.01177160726450066</v>
       </c>
       <c r="FI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0.02469489055848947</v>
+        <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.01275944508891175</v>
+        <v>-0.01350726249386292</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>0.0238211427868699</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
         <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>-0.00304631471413691</v>
+        <v>-0.006546759746832906</v>
       </c>
       <c r="FR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.04500325228827375</v>
+        <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>-0.01311266141919482</v>
+        <v>0.001647881589228021</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>-0.0006343720858502663</v>
       </c>
       <c r="FV6" t="n">
         <v>-0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
         <v>0</v>
@@ -3823,25 +3823,25 @@
         <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.02098109647771468</v>
+        <v>-0.01405900208865225</v>
       </c>
       <c r="GA6" t="n">
         <v>0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.03587659051006605</v>
+        <v>0</v>
       </c>
       <c r="GC6" t="n">
         <v>-0</v>
       </c>
       <c r="GD6" t="n">
-        <v>0</v>
+        <v>-0.006142392214902499</v>
       </c>
       <c r="GE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG6" t="n">
         <v>0</v>
@@ -3852,43 +3852,43 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.07922185897965527</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.003820770174585629</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03967102897913762</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02659099745574076</v>
+        <v>-0.009568064064697065</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0</v>
+        <v>-0.004516347136445872</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.02896707786701479</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.001558206837793643</v>
+        <v>-0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01024529025049811</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.00854388757099285</v>
+        <v>-0.03698409720773339</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R7" t="n">
-        <v>-0</v>
+        <v>-0.001885510811597013</v>
       </c>
       <c r="S7" t="n">
         <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.002757484100180435</v>
       </c>
       <c r="U7" t="n">
-        <v>0.005887462979667218</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.01147285104383748</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.01208447433883685</v>
+        <v>-0.001090815487736433</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -3927,22 +3927,22 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>0.0005160410835590934</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.03512531007090526</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.01115371081739989</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.01949635563211502</v>
+        <v>-0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.01808266590937149</v>
+        <v>0.02738385431066692</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -3954,79 +3954,79 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>0.01263768000576627</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.02442944307325537</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.006420673100165668</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.04182472052857599</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.01250983708194844</v>
+        <v>-0.02288364457710829</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>-0.0142907337844646</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.1662560559676156</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.04802667840535067</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.05717381825152267</v>
+        <v>-0</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.03229929963854068</v>
+        <v>0.06513288123626994</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB7" t="n">
-        <v>-0</v>
+        <v>0.004537500812004287</v>
       </c>
       <c r="BC7" t="n">
         <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>-0.005701427748892611</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.01158241360263958</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.02121252204091864</v>
+        <v>0</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.002223110335345168</v>
+        <v>-0.02157487898423979</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
         <v>-0</v>
@@ -4035,22 +4035,22 @@
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0</v>
+        <v>0.02139353320428345</v>
       </c>
       <c r="BL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>0.01577329106320983</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.05336589739805419</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.02434264154802928</v>
+        <v>-0</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.06036629196098026</v>
+        <v>0.07328775648029445</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
@@ -4062,49 +4062,49 @@
         <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0</v>
+        <v>0.02692819190524353</v>
       </c>
       <c r="BU7" t="n">
         <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.08272539266660328</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.01167356639013131</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.04394323235928583</v>
+        <v>-0</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.07247684837779081</v>
+        <v>0.01153594911989237</v>
       </c>
       <c r="BZ7" t="n">
         <v>-0</v>
       </c>
       <c r="CA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC7" t="n">
-        <v>-0</v>
+        <v>0.008760847297346051</v>
       </c>
       <c r="CD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.01924771929669158</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.01238590128419362</v>
+        <v>-0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0.02571358594918177</v>
+        <v>-0</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.00445945311369328</v>
+        <v>-0.0005614518250307024</v>
       </c>
       <c r="CI7" t="n">
         <v>0</v>
@@ -4116,22 +4116,22 @@
         <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>0</v>
+        <v>0.02535101553817352</v>
       </c>
       <c r="CM7" t="n">
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.02138404467407852</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.003038474708189266</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0.06728181486432362</v>
+        <v>-0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.0195767446514218</v>
+        <v>-0.01649618257967604</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
@@ -4143,25 +4143,25 @@
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0</v>
+        <v>-0.005182698189409238</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.01535094361568996</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.01378022677540801</v>
+        <v>0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0.02137030392538802</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.00460821736399307</v>
+        <v>0.004839264423676924</v>
       </c>
       <c r="DA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB7" t="n">
         <v>0</v>
@@ -4170,22 +4170,22 @@
         <v>0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0</v>
+        <v>0.02494151222536031</v>
       </c>
       <c r="DE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.06712681243915618</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.03303644222691322</v>
+        <v>-0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0.02305383687217283</v>
+        <v>-0</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.003277436993308952</v>
+        <v>0.02972886974855416</v>
       </c>
       <c r="DJ7" t="n">
         <v>-0</v>
@@ -4197,22 +4197,22 @@
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>-0</v>
+        <v>-0.002749001572195376</v>
       </c>
       <c r="DN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>0.003718467693625823</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0.01788410063598204</v>
+        <v>-0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0.00469911837255431</v>
+        <v>-0</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.03511449107126686</v>
+        <v>-0.006844606647754456</v>
       </c>
       <c r="DS7" t="n">
         <v>-0</v>
@@ -4221,25 +4221,25 @@
         <v>0</v>
       </c>
       <c r="DU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0</v>
+        <v>-0.002809965376044405</v>
       </c>
       <c r="DW7" t="n">
         <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>-0.002574257602074628</v>
       </c>
       <c r="DY7" t="n">
-        <v>-0.02626756261832159</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.02552062663382468</v>
+        <v>-0</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.02170735002055946</v>
+        <v>-0.01768638723281177</v>
       </c>
       <c r="EB7" t="n">
         <v>0</v>
@@ -4248,172 +4248,172 @@
         <v>-0</v>
       </c>
       <c r="ED7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE7" t="n">
-        <v>0</v>
+        <v>-0.01270861034296726</v>
       </c>
       <c r="EF7" t="n">
         <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.002448434508034231</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.01891448274252672</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0.006318192949578744</v>
+        <v>0</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.01024343679238988</v>
+        <v>0.02338987615849451</v>
       </c>
       <c r="EK7" t="n">
         <v>0</v>
       </c>
       <c r="EL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
         <v>0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0</v>
+        <v>0.02629705342984468</v>
       </c>
       <c r="EO7" t="n">
         <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.03449304003223867</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.003456037782186008</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0.01705378199939201</v>
+        <v>-0</v>
       </c>
       <c r="ES7" t="n">
-        <v>-0.0005060228497933623</v>
+        <v>0.001294588907499899</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
         <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0</v>
+        <v>0.009414040387965695</v>
       </c>
       <c r="EX7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.02605549440651283</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.009945531902029297</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0.01619241347292269</v>
+        <v>-0</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.009419737911109977</v>
+        <v>0.005844626312338378</v>
       </c>
       <c r="FC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD7" t="n">
         <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>0</v>
+        <v>0.01511886310422681</v>
       </c>
       <c r="FG7" t="n">
         <v>-0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.02645727773213055</v>
       </c>
       <c r="FI7" t="n">
-        <v>-0.002271605521570854</v>
+        <v>0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0.005518173217302831</v>
+        <v>0</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.004546608819339087</v>
+        <v>-0.02359112244592703</v>
       </c>
       <c r="FL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM7" t="n">
         <v>0</v>
       </c>
       <c r="FN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO7" t="n">
-        <v>0</v>
+        <v>0.01308353585084712</v>
       </c>
       <c r="FP7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0.04427098796880272</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0.002085777386990226</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.005386427951355962</v>
+        <v>-0</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.0236436146101347</v>
+        <v>0.005971297432784496</v>
       </c>
       <c r="FU7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV7" t="n">
         <v>-0</v>
       </c>
       <c r="FW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>0</v>
+        <v>0.0004243337770675755</v>
       </c>
       <c r="FY7" t="n">
         <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>-0</v>
+        <v>-0.03344965375194718</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.003212967388298293</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.0259608390771097</v>
+        <v>-0</v>
       </c>
       <c r="GC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
         <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0</v>
+        <v>0.02902152564144799</v>
       </c>
     </row>
     <row r="8">
@@ -4421,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>-0</v>
@@ -4448,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>-0</v>
@@ -4475,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>-0</v>
@@ -4502,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
         <v>-0</v>
@@ -4529,13 +4529,13 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
         <v>-0</v>
@@ -4556,13 +4556,13 @@
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
         <v>-0</v>
@@ -4583,13 +4583,13 @@
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
         <v>-0</v>
@@ -4610,13 +4610,13 @@
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP8" t="n">
         <v>-0</v>
@@ -4637,13 +4637,13 @@
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY8" t="n">
         <v>-0</v>
@@ -4664,13 +4664,13 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH8" t="n">
         <v>-0</v>
@@ -4691,13 +4691,13 @@
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
         <v>-0</v>
@@ -4745,13 +4745,13 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI8" t="n">
         <v>-0</v>
@@ -4772,13 +4772,13 @@
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR8" t="n">
         <v>-0</v>
@@ -4826,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ8" t="n">
         <v>-0</v>
@@ -4853,13 +4853,13 @@
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES8" t="n">
         <v>-0</v>
@@ -4880,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB8" t="n">
         <v>-0</v>
@@ -4907,13 +4907,13 @@
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK8" t="n">
         <v>-0</v>
@@ -4987,109 +4987,109 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.2815015323028037</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08294325283292601</v>
+        <v>-0.1208522464173851</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0472861369887187</v>
+        <v>-0.05840785980081597</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.02989751461209263</v>
+        <v>-0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.1505880726912145</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03212229404445845</v>
+        <v>-0.07882796190891085</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.00611070975021797</v>
+        <v>-0.06612350769493712</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.03631470083889863</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.02370641419775992</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.005991152835693234</v>
+        <v>-0.003610685294156945</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.03166775965250929</v>
+        <v>-0.006445007706906422</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.008129206528073935</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0</v>
+        <v>0.09619631328945855</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.04656503462480574</v>
+        <v>-0.03120319462958932</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.02940286236946392</v>
+        <v>0.02725571145464951</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
         <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.01524259460062795</v>
+        <v>-0</v>
       </c>
       <c r="AJ9" t="n">
         <v>-0</v>
@@ -5098,25 +5098,25 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>0.008445319714667152</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.07333298623701849</v>
+        <v>-0.03003089550876374</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.07278454472131332</v>
+        <v>-0.1190867863840156</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.02803390067344632</v>
+        <v>-0</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
@@ -5125,16 +5125,16 @@
         <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.4430741806979165</v>
       </c>
       <c r="AV9" t="n">
         <v>-0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.06303719389722222</v>
+        <v>-0.0198739816318064</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.08541861459600192</v>
+        <v>0.132380198465229</v>
       </c>
       <c r="AY9" t="n">
         <v>-0</v>
@@ -5143,25 +5143,25 @@
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0.0966135384763806</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC9" t="n">
         <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.02088199612367187</v>
       </c>
       <c r="BE9" t="n">
         <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.02675582922062331</v>
+        <v>-0.02029056813375596</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.007813962858879225</v>
+        <v>-0.07487967071623949</v>
       </c>
       <c r="BH9" t="n">
         <v>0</v>
@@ -5170,34 +5170,34 @@
         <v>-0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>-0.0004497063325439576</v>
+        <v>0</v>
       </c>
       <c r="BK9" t="n">
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>0.1540741063666666</v>
       </c>
       <c r="BN9" t="n">
         <v>-0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.01365731548132046</v>
+        <v>0.02163675467499574</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.0172785974131405</v>
+        <v>0.1090520085015167</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR9" t="n">
         <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.02729225028421091</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
@@ -5206,70 +5206,70 @@
         <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>0.2288939287119959</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.1231217673072125</v>
+        <v>-0.04095236715406394</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.02179811505590212</v>
+        <v>0.01192204492861598</v>
       </c>
       <c r="BZ9" t="n">
         <v>-0</v>
       </c>
       <c r="CA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB9" t="n">
-        <v>-0.088612889622472</v>
+        <v>0</v>
       </c>
       <c r="CC9" t="n">
         <v>0</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>-0</v>
+        <v>-0.06743275022342679</v>
       </c>
       <c r="CF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>-0.03059021869217323</v>
+        <v>0.009583424915312498</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.009640504953308475</v>
+        <v>-0.01465727083479497</v>
       </c>
       <c r="CI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.004785702650789456</v>
+        <v>-0</v>
       </c>
       <c r="CL9" t="n">
         <v>-0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0.07503466819427111</v>
       </c>
       <c r="CO9" t="n">
         <v>0</v>
       </c>
       <c r="CP9" t="n">
-        <v>-0.08340147254685122</v>
+        <v>-0.1211022376441834</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.03906958597328927</v>
+        <v>-0.1087916105036191</v>
       </c>
       <c r="CR9" t="n">
         <v>0</v>
@@ -5278,79 +5278,79 @@
         <v>-0</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.03684619609245363</v>
+        <v>-0</v>
       </c>
       <c r="CU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>0</v>
+        <v>-0.04444504882168809</v>
       </c>
       <c r="CX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0.03148864652768368</v>
+        <v>0.0360654944971033</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.01514277104553072</v>
+        <v>0.004708730200157574</v>
       </c>
       <c r="DA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB9" t="n">
         <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.002957310235385398</v>
+        <v>0</v>
       </c>
       <c r="DD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF9" t="n">
-        <v>-0</v>
+        <v>-0.01505040571861022</v>
       </c>
       <c r="DG9" t="n">
         <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>-0.02046936684611579</v>
+        <v>0.04801469908775666</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.03305500507243256</v>
+        <v>0.02299946743385808</v>
       </c>
       <c r="DJ9" t="n">
         <v>0</v>
       </c>
       <c r="DK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL9" t="n">
-        <v>-0.0648240853270436</v>
+        <v>0</v>
       </c>
       <c r="DM9" t="n">
         <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.07799512042234789</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.02551667545878384</v>
+        <v>-0.02435048511521843</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0.03623988331534322</v>
+        <v>-0.009302787974615189</v>
       </c>
       <c r="DS9" t="n">
         <v>0</v>
@@ -5359,34 +5359,34 @@
         <v>0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.003394729283036229</v>
+        <v>0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW9" t="n">
         <v>0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>0.03168019952069409</v>
       </c>
       <c r="DY9" t="n">
         <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.01402954975270034</v>
+        <v>-0.04248527632422641</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.001649321563338315</v>
+        <v>-0.002436373935883997</v>
       </c>
       <c r="EB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC9" t="n">
         <v>0</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.02583511280109711</v>
+        <v>-0</v>
       </c>
       <c r="EE9" t="n">
         <v>-0</v>
@@ -5395,25 +5395,25 @@
         <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>-0</v>
+        <v>-0.01634857192723618</v>
       </c>
       <c r="EH9" t="n">
         <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0.06256926588127514</v>
+        <v>0.06288372751455945</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.02663361574746214</v>
+        <v>0.04916425981173941</v>
       </c>
       <c r="EK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.02407367047554164</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
         <v>-0</v>
@@ -5422,162 +5422,162 @@
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0.06838926736353844</v>
       </c>
       <c r="EQ9" t="n">
         <v>-0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0.02902513105665992</v>
+        <v>-0.05901818408101457</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.04097000137347019</v>
+        <v>-0.01268305549595014</v>
       </c>
       <c r="ET9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.05800263647114526</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0.05539113821086633</v>
       </c>
       <c r="EZ9" t="n">
         <v>-0</v>
       </c>
       <c r="FA9" t="n">
-        <v>-0.031555808232234</v>
+        <v>0.02657982519805805</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.01752383063824223</v>
+        <v>0.009019296767391256</v>
       </c>
       <c r="FC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD9" t="n">
         <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.01636821507852953</v>
+        <v>-0</v>
       </c>
       <c r="FF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>0.05297491708190308</v>
       </c>
       <c r="FI9" t="n">
         <v>0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0.04604609770994355</v>
+        <v>0.04857848612537258</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.04871302064754775</v>
+        <v>0.01749975006793934</v>
       </c>
       <c r="FL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN9" t="n">
-        <v>-0.01236151040447902</v>
+        <v>-0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0.03221926591635039</v>
       </c>
       <c r="FR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>-0.01569824085146615</v>
+        <v>-0.02324279929384894</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.1090001335005728</v>
+        <v>0.09921848001933811</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV9" t="n">
         <v>-0</v>
       </c>
       <c r="FW9" t="n">
-        <v>-0.01335446378959434</v>
+        <v>-0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
         <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
+        <v>-0.02588865039475632</v>
       </c>
       <c r="GA9" t="n">
         <v>-0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.00527469125900154</v>
+        <v>-0.02298568282209811</v>
       </c>
       <c r="GC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.003150663241914713</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.2470845184349121</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1743845083786768</v>
+        <v>-0.1032366070099718</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05076348392302508</v>
+        <v>-0.0957371087706937</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.403852921543506e-11</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.06431717767086079</v>
+        <v>8.418312676320214e-12</v>
       </c>
       <c r="I10" t="n">
         <v>-0</v>
@@ -5586,25 +5586,25 @@
         <v>-0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.1325711804502957</v>
       </c>
       <c r="L10" t="n">
         <v>-0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1271189037894212</v>
+        <v>-0.06761988976674783</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.02168675238998365</v>
+        <v>-0.1422226303718421</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03205389414471894</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.05581643045267035</v>
+        <v>-0.003314780231591662</v>
       </c>
       <c r="R10" t="n">
         <v>-0</v>
@@ -5613,79 +5613,79 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.06317859121621232</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.009323358812233213</v>
+        <v>-0.01303335741866291</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.04002281154426861</v>
+        <v>-0.0015459476700098</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0292725075622015</v>
+        <v>-0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.01177004117420773</v>
+        <v>-0.001819389485213783</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB10" t="n">
         <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.07161296761543931</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.07878709150660793</v>
+        <v>0.08395704982368586</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.0615701296887271</v>
+        <v>-0.0278496678587558</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.02605164282445349</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.03281159045457158</v>
+        <v>0.01370889197630573</v>
       </c>
       <c r="AJ10" t="n">
         <v>-0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>0.01904653787671291</v>
       </c>
       <c r="AM10" t="n">
         <v>-0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.08843885439098469</v>
+        <v>-0.05667754884537556</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.04631500770831585</v>
+        <v>-0.08915760464658547</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.02036698656478062</v>
+        <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.01210468863111525</v>
+        <v>-0.0002112893193432413</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
@@ -5694,376 +5694,376 @@
         <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.4660783052485977</v>
       </c>
       <c r="AV10" t="n">
         <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.08274156142853006</v>
+        <v>0.0007710893488538321</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.12640509730806</v>
+        <v>0.1727315910402573</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.02969147152421255</v>
+        <v>-0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0.09339109492298045</v>
+        <v>0.0473186164558993</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
         <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>-0.01179936853734211</v>
       </c>
       <c r="BE10" t="n">
         <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.07872596040893937</v>
+        <v>-0.03159502942562394</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.04813606438150973</v>
+        <v>-0.1622562764638793</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.03968884137338958</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
         <v>-0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.005045969550471972</v>
+        <v>-0.00288754729847395</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0</v>
+        <v>0.1441893567899667</v>
       </c>
       <c r="BN10" t="n">
         <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.004471340188592423</v>
+        <v>0.1268418533182775</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.03950910824435467</v>
+        <v>0.1270343105504727</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-0.005901764686172322</v>
+        <v>-0</v>
       </c>
       <c r="BR10" t="n">
         <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.04564632517770401</v>
+        <v>0.04196688304884907</v>
       </c>
       <c r="BT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
         <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>0.227676970697377</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.09756220680250752</v>
+        <v>0.02744911718257402</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.03345362943537102</v>
+        <v>0.03179656389712266</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.02037427904045553</v>
+        <v>-0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0.08000777243136176</v>
+        <v>0.001464439160883281</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
         <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.07016588562524181</v>
       </c>
       <c r="CF10" t="n">
         <v>-0</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0.05240421026847457</v>
+        <v>0.02402740650066615</v>
       </c>
       <c r="CH10" t="n">
-        <v>-0.004296057552797944</v>
+        <v>-0.002203342236885705</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.00326480689075907</v>
+        <v>-0</v>
       </c>
       <c r="CJ10" t="n">
         <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.02433912293809089</v>
+        <v>0.006681223797264205</v>
       </c>
       <c r="CL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.07638307740903713</v>
       </c>
       <c r="CO10" t="n">
         <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0.0166566582182005</v>
+        <v>-0.1114783571240855</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.08443871382260572</v>
+        <v>-0.01474261611556455</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0.02624443907611186</v>
+        <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>-0.03258643661833412</v>
+        <v>0.06276036132058843</v>
       </c>
       <c r="CU10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>-0.04222639997829995</v>
       </c>
       <c r="CX10" t="n">
         <v>0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0.036582919129352</v>
+        <v>0.0460303735604865</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.001889018455809936</v>
+        <v>0.007035805461602548</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.02532992083009471</v>
+        <v>0</v>
       </c>
       <c r="DB10" t="n">
         <v>0</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.01039138145498009</v>
+        <v>0.008951181726513021</v>
       </c>
       <c r="DD10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE10" t="n">
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.06240458467698688</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>-0.04945110808987142</v>
+        <v>0.0340490407089142</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.03495840743078275</v>
+        <v>-0.001977788978849075</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.0009177934813225477</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL10" t="n">
-        <v>-0.03112530710250568</v>
+        <v>0.001107704777725401</v>
       </c>
       <c r="DM10" t="n">
         <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.08825651888727057</v>
       </c>
       <c r="DP10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.03843425682742665</v>
+        <v>-0.02550367924007988</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.08156586152468302</v>
+        <v>0.04774729586677496</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0.03718632072043324</v>
+        <v>-0</v>
       </c>
       <c r="DT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>-0.04844541358801747</v>
+        <v>-0.03592336004037908</v>
       </c>
       <c r="DV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW10" t="n">
         <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>-0.01592359962308398</v>
       </c>
       <c r="DY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>-0.003542847166187663</v>
+        <v>-0.03336998938484566</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.03229330659697834</v>
+        <v>-0.03449827806887938</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.03685762960226872</v>
+        <v>0</v>
       </c>
       <c r="EC10" t="n">
         <v>-0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.0481416346148798</v>
+        <v>-0.02863860063263021</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
         <v>-0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.02351870879856304</v>
       </c>
       <c r="EH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI10" t="n">
-        <v>-0.1333080303674583</v>
+        <v>0.07332782434434365</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.02455304119295371</v>
+        <v>0.03159212830118156</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.008870849144365643</v>
+        <v>0</v>
       </c>
       <c r="EL10" t="n">
         <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.003958707029253641</v>
+        <v>0.04571388947874493</v>
       </c>
       <c r="EN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO10" t="n">
         <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>-0.08891431696905695</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER10" t="n">
-        <v>-0.03718113352322206</v>
+        <v>0.08898723232583954</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.01513684062235247</v>
+        <v>-0.03700315619288005</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.08952721724859178</v>
+        <v>-0</v>
       </c>
       <c r="EU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0.008523035827236177</v>
+        <v>0.01282251699825968</v>
       </c>
       <c r="EW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.05356413819858893</v>
       </c>
       <c r="EZ10" t="n">
         <v>-0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0.04154232130996839</v>
+        <v>0.03990485758713448</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.002403732562983169</v>
+        <v>0.02078275295389396</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.01789338080571137</v>
+        <v>-0</v>
       </c>
       <c r="FD10" t="n">
         <v>-0</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.02506979591637552</v>
+        <v>0.005060624634846344</v>
       </c>
       <c r="FF10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG10" t="n">
         <v>-0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>0.07147286892967199</v>
       </c>
       <c r="FI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0.05550082309768829</v>
+        <v>-0.0335940618063249</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.04058208140599511</v>
+        <v>-0.01550435550165679</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0.00512236382319423</v>
+        <v>-0</v>
       </c>
       <c r="FM10" t="n">
         <v>-0</v>
       </c>
       <c r="FN10" t="n">
-        <v>-0.01459758329467657</v>
+        <v>-0.004328188445603767</v>
       </c>
       <c r="FO10" t="n">
         <v>0</v>
@@ -6072,25 +6072,25 @@
         <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>-0.09869269903919436</v>
       </c>
       <c r="FR10" t="n">
         <v>0</v>
       </c>
       <c r="FS10" t="n">
-        <v>-0.04174580883638838</v>
+        <v>-0.06003857865542035</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.05522013251699338</v>
+        <v>-0.0642012877459487</v>
       </c>
       <c r="FU10" t="n">
-        <v>-0.04745780939256473</v>
+        <v>0</v>
       </c>
       <c r="FV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.05443004615749721</v>
+        <v>0.01558547125309226</v>
       </c>
       <c r="FX10" t="n">
         <v>0</v>
@@ -6099,25 +6099,25 @@
         <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>-0</v>
+        <v>-0.09723489434697646</v>
       </c>
       <c r="GA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.05165246196681199</v>
+        <v>-0.03408020382976761</v>
       </c>
       <c r="GC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD10" t="n">
-        <v>-0.01515466503135984</v>
+        <v>-0</v>
       </c>
       <c r="GE10" t="n">
         <v>0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0.006562196013155993</v>
+        <v>0.02997556362139621</v>
       </c>
       <c r="GG10" t="n">
         <v>-0</v>
@@ -6128,25 +6128,25 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.1077032636809259</v>
+        <v>0.08386019570165759</v>
       </c>
       <c r="C11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1441770760852168</v>
+        <v>-0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05913043625949136</v>
+        <v>-0.06522150719378753</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-0.05546696572897549</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -6155,19 +6155,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0718175783260666</v>
+        <v>0.03939665779855735</v>
       </c>
       <c r="L11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.08917318628537703</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.02286222043214171</v>
+        <v>-0.05880161780247598</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0.04269197164562</v>
       </c>
       <c r="P11" t="n">
         <v>-0</v>
@@ -6176,52 +6176,52 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.007613924041516932</v>
+        <v>0.01193767360639306</v>
       </c>
       <c r="U11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.02772222769759044</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.05290927271681654</v>
+        <v>0.003887891417489284</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.01631350122578821</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.06053761888107777</v>
+        <v>0.02576771826607821</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.07314763015787194</v>
+        <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.06543872627353536</v>
+        <v>0.0161230657898242</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>0.01828038971144951</v>
       </c>
       <c r="AH11" t="n">
         <v>-0</v>
@@ -6230,52 +6230,52 @@
         <v>-0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.03336656293979003</v>
+        <v>0.01862952327857872</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.01085312104487727</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.01964447801006615</v>
+        <v>-0.02079485937495316</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0</v>
+        <v>-0.006305069628821995</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.06922677517752181</v>
+        <v>0.1148501591063746</v>
       </c>
       <c r="AV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.03549559997605844</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.02743675191557198</v>
+        <v>-0.01982105413432997</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>-0.01331131022273548</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
@@ -6287,22 +6287,22 @@
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.02797328927917623</v>
+        <v>0.01886609089848843</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.06535548698130014</v>
+        <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.0009439044750303011</v>
+        <v>-0.04163644946467512</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0</v>
+        <v>-0.03038570218869392</v>
       </c>
       <c r="BI11" t="n">
         <v>-0</v>
@@ -6311,28 +6311,28 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
         <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.05809987637555276</v>
+        <v>0.06282053611353099</v>
       </c>
       <c r="BN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.03038722326788012</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.009511756523251466</v>
+        <v>0.03549362494843274</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>0.01398241373608709</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS11" t="n">
         <v>0</v>
@@ -6341,184 +6341,184 @@
         <v>0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>-0.02940006279953309</v>
+        <v>0.04480032023902552</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.08508017194391407</v>
+        <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>-0.02842790519273538</v>
+        <v>-0.01648018933317369</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>0.01221034380930878</v>
       </c>
       <c r="CA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.03868231199132588</v>
+        <v>-0.01693604172628734</v>
       </c>
       <c r="CF11" t="n">
         <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>-0.03484918281511322</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.01434494137031814</v>
+        <v>0.01310989270599581</v>
       </c>
       <c r="CI11" t="n">
-        <v>0</v>
+        <v>0.01598140425278118</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK11" t="n">
         <v>0</v>
       </c>
       <c r="CL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.02859131261200239</v>
+        <v>-0.01797904499006639</v>
       </c>
       <c r="CO11" t="n">
         <v>0</v>
       </c>
       <c r="CP11" t="n">
-        <v>-0.04048294554724319</v>
+        <v>-0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.1124720293388464</v>
+        <v>-0.012813331326182</v>
       </c>
       <c r="CR11" t="n">
-        <v>0</v>
+        <v>-0.009958092523241905</v>
       </c>
       <c r="CS11" t="n">
         <v>0</v>
       </c>
       <c r="CT11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
         <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.03942361171507076</v>
+        <v>-0.006167419776663866</v>
       </c>
       <c r="CX11" t="n">
         <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0.02595935637992015</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.00889999714768655</v>
+        <v>0.01253674291060891</v>
       </c>
       <c r="DA11" t="n">
-        <v>0</v>
+        <v>0.01735817807204967</v>
       </c>
       <c r="DB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE11" t="n">
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.05405268205299245</v>
+        <v>-0.009366013012976926</v>
       </c>
       <c r="DG11" t="n">
         <v>-0</v>
       </c>
       <c r="DH11" t="n">
-        <v>-0.02476581862713096</v>
+        <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>-0.03334171371672532</v>
+        <v>0.009641696523764063</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0</v>
+        <v>0.00945395233475476</v>
       </c>
       <c r="DK11" t="n">
         <v>0</v>
       </c>
       <c r="DL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.01912667856232007</v>
+        <v>-0.0182402524730501</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.003301019241199175</v>
+        <v>0</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.05183805243490817</v>
+        <v>0.02134504797240114</v>
       </c>
       <c r="DS11" t="n">
-        <v>0</v>
+        <v>-0.0285223022849072</v>
       </c>
       <c r="DT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW11" t="n">
         <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.01481668357254147</v>
+        <v>-0.005108023396178977</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.03999401543800408</v>
+        <v>0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.01035493690253208</v>
+        <v>-0.02456951038313874</v>
       </c>
       <c r="EB11" t="n">
-        <v>-0</v>
+        <v>-0.00830155218310508</v>
       </c>
       <c r="EC11" t="n">
         <v>-0</v>
@@ -6533,25 +6533,25 @@
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.0359323531891419</v>
+        <v>0.003666131265358069</v>
       </c>
       <c r="EH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI11" t="n">
-        <v>-0.05576177860166225</v>
+        <v>0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>-0.02973310518934619</v>
+        <v>0.005048487493100426</v>
       </c>
       <c r="EK11" t="n">
-        <v>-0</v>
+        <v>0.004121900642494842</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
         <v>-0</v>
@@ -6560,19 +6560,19 @@
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.03175641209700385</v>
+        <v>0.01099702206278394</v>
       </c>
       <c r="EQ11" t="n">
         <v>0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.006745225973819904</v>
+        <v>0</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.03882237918013053</v>
+        <v>0.005869001025938502</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0</v>
+        <v>0.0200487587167411</v>
       </c>
       <c r="EU11" t="n">
         <v>0</v>
@@ -6587,49 +6587,49 @@
         <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.03553159223349218</v>
+        <v>-0.003110707809250975</v>
       </c>
       <c r="EZ11" t="n">
         <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>-0.02960295559645256</v>
+        <v>0</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.01814572940894163</v>
+        <v>0.01186076008728186</v>
       </c>
       <c r="FC11" t="n">
-        <v>0</v>
+        <v>0.02027571353337713</v>
       </c>
       <c r="FD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF11" t="n">
         <v>-0</v>
       </c>
       <c r="FG11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.04491959529995161</v>
+        <v>-0.01868431551209963</v>
       </c>
       <c r="FI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
-        <v>-0.03177264962764487</v>
+        <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>-0.01654123098745706</v>
+        <v>-0.03370005626679827</v>
       </c>
       <c r="FL11" t="n">
-        <v>0</v>
+        <v>0.01019727416974537</v>
       </c>
       <c r="FM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN11" t="n">
         <v>-0</v>
@@ -6638,49 +6638,49 @@
         <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.000688251914941222</v>
+        <v>0.001942208933395002</v>
       </c>
       <c r="FR11" t="n">
         <v>0</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.05510941845297581</v>
+        <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.0517125990153123</v>
+        <v>-0.00240353946153704</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>0.02272525983892771</v>
       </c>
       <c r="FV11" t="n">
         <v>-0</v>
       </c>
       <c r="FW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
         <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.02566714150026426</v>
+        <v>-0.03485333017983137</v>
       </c>
       <c r="GA11" t="n">
         <v>0</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.04084583398669364</v>
+        <v>-0</v>
       </c>
       <c r="GC11" t="n">
         <v>-0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0</v>
+        <v>-0.006044718825042113</v>
       </c>
       <c r="GE11" t="n">
         <v>0</v>
@@ -6689,33 +6689,33 @@
         <v>-0</v>
       </c>
       <c r="GG11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.1831009557201636</v>
       </c>
       <c r="C12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2588262418414706</v>
+        <v>-0.1060593485531727</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04936258912140423</v>
+        <v>-0.04489676532069157</v>
       </c>
       <c r="F12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.1007932490435273</v>
+        <v>-0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -6724,79 +6724,79 @@
         <v>-0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.1063697911766365</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1852595800073779</v>
+        <v>-0.07345940053961347</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.03257302297158745</v>
+        <v>-0.0497979654738445</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.1062910014044757</v>
+        <v>-0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.03631085528481948</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.02481500085709752</v>
+        <v>0.0061625726913397</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.08942121303653777</v>
+        <v>0.025658039445574</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.04053396917233246</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0</v>
+        <v>0.09995227882709326</v>
       </c>
       <c r="AD12" t="n">
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.09395209738377357</v>
+        <v>-0.00556558247609383</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.01486161425447036</v>
+        <v>-0.03051585414793436</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
         <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.005342457973345376</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
         <v>-0</v>
@@ -6805,25 +6805,25 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0</v>
+        <v>0.01917841603217064</v>
       </c>
       <c r="AM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.09356579281031381</v>
+        <v>-0.04368357595067415</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.07660749480071438</v>
+        <v>-0.06552836399036192</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0.01048868929828157</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
         <v>0</v>
@@ -6832,16 +6832,16 @@
         <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0</v>
+        <v>0.3071109363747874</v>
       </c>
       <c r="AV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.1395198307584796</v>
+        <v>0.002568156944245914</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.02508482497588257</v>
+        <v>0.1126450766136668</v>
       </c>
       <c r="AY12" t="n">
         <v>-0</v>
@@ -6850,25 +6850,25 @@
         <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.1391631126159698</v>
+        <v>-0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
         <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>-0.03181312517018058</v>
       </c>
       <c r="BE12" t="n">
         <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.1019189241437875</v>
+        <v>-0.0261595172612914</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.01695267449262613</v>
+        <v>-0.08946005205770644</v>
       </c>
       <c r="BH12" t="n">
         <v>0</v>
@@ -6877,34 +6877,34 @@
         <v>-0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0.008446756568555322</v>
+        <v>0</v>
       </c>
       <c r="BK12" t="n">
         <v>0</v>
       </c>
       <c r="BL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>0.08055173332725529</v>
       </c>
       <c r="BN12" t="n">
         <v>-0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.03154661816980454</v>
+        <v>0.04695688553872427</v>
       </c>
       <c r="BP12" t="n">
-        <v>-0.00890490656749352</v>
+        <v>0.0841318064231478</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR12" t="n">
         <v>-0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.0701116243549724</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
         <v>-0</v>
@@ -6913,52 +6913,52 @@
         <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>0.1507095830427172</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.1563271472524844</v>
+        <v>0.008083346531984684</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.009567845088954648</v>
+        <v>0.04696234564514888</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB12" t="n">
-        <v>-0.1347592793237531</v>
+        <v>-0</v>
       </c>
       <c r="CC12" t="n">
         <v>0</v>
       </c>
       <c r="CD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>-0</v>
+        <v>-0.04418183871991287</v>
       </c>
       <c r="CF12" t="n">
         <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>-0.07857639952764529</v>
+        <v>9.967608113416701e-05</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.01915325504905048</v>
+        <v>-0.009148786739063247</v>
       </c>
       <c r="CI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.032538913340853</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
         <v>0</v>
@@ -6967,97 +6967,97 @@
         <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>-0.02506748711447086</v>
       </c>
       <c r="CO12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>-0.09264063569819424</v>
+        <v>-0.1174033061737398</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.09908645664663372</v>
+        <v>-0.06983487472822746</v>
       </c>
       <c r="CR12" t="n">
         <v>0</v>
       </c>
       <c r="CS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.06275121601966076</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>0</v>
+        <v>-0.02073680527128681</v>
       </c>
       <c r="CX12" t="n">
         <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0.07240080524838904</v>
+        <v>0.01725944506904914</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.02630605262713531</v>
+        <v>-0.006105277870848949</v>
       </c>
       <c r="DA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.0293979486112715</v>
+        <v>-0</v>
       </c>
       <c r="DD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE12" t="n">
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>0.001392780370202035</v>
       </c>
       <c r="DG12" t="n">
         <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0.03818924267308139</v>
+        <v>0.01666638481845247</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.1092963214779927</v>
+        <v>0.04025226264025477</v>
       </c>
       <c r="DJ12" t="n">
         <v>0</v>
       </c>
       <c r="DK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0.02930200565933568</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
         <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.04113664260661035</v>
       </c>
       <c r="DP12" t="n">
         <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.01900545662983402</v>
+        <v>-0.007959020577800201</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.02079462397731153</v>
+        <v>-0.02175367007617956</v>
       </c>
       <c r="DS12" t="n">
         <v>0</v>
@@ -7066,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.00185496969978621</v>
+        <v>-0</v>
       </c>
       <c r="DV12" t="n">
         <v>0</v>
@@ -7075,160 +7075,160 @@
         <v>0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>0.02058913822229661</v>
       </c>
       <c r="DY12" t="n">
         <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.02593888711494515</v>
+        <v>0.03595430473830787</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.0215640838632883</v>
+        <v>0.006985418092378048</v>
       </c>
       <c r="EB12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED12" t="n">
-        <v>-0.02968353928234277</v>
+        <v>-0</v>
       </c>
       <c r="EE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>-0</v>
+        <v>-0.01229827672938916</v>
       </c>
       <c r="EH12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>-0.1638026106198284</v>
+        <v>0.05023974831471428</v>
       </c>
       <c r="EJ12" t="n">
-        <v>-0.05402887537652399</v>
+        <v>0.03407643361968344</v>
       </c>
       <c r="EK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.06910152301424821</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO12" t="n">
         <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>-0</v>
+        <v>-0.03548369634189817</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0.04748405499557497</v>
+        <v>0.01194544256795099</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.02481230353790277</v>
+        <v>0.04807715361840442</v>
       </c>
       <c r="ET12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV12" t="n">
-        <v>-0.03012133312388486</v>
+        <v>0</v>
       </c>
       <c r="EW12" t="n">
         <v>-0</v>
       </c>
       <c r="EX12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY12" t="n">
-        <v>-0</v>
+        <v>-0.02885028174773058</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA12" t="n">
-        <v>-0.06746007954140387</v>
+        <v>0.01348713560515322</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.02789111061377201</v>
+        <v>0.003392347106282008</v>
       </c>
       <c r="FC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.04835642656082838</v>
+        <v>0</v>
       </c>
       <c r="FF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0</v>
+        <v>0.03008174869901151</v>
       </c>
       <c r="FI12" t="n">
         <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0.03327567851693047</v>
+        <v>0.03650844370813016</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.08014050504598892</v>
+        <v>-0.02182824329361085</v>
       </c>
       <c r="FL12" t="n">
         <v>0</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>-0.005458646456028895</v>
+        <v>0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0</v>
+        <v>-0.02837930425888821</v>
       </c>
       <c r="FR12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0.03949214351269539</v>
+        <v>-0.02054164347519434</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.07548772102245573</v>
+        <v>0.06486808067495703</v>
       </c>
       <c r="FU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV12" t="n">
         <v>-0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.031488070521035</v>
+        <v>0</v>
       </c>
       <c r="FX12" t="n">
         <v>0</v>
@@ -7237,25 +7237,25 @@
         <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
+        <v>0.01296884947915551</v>
       </c>
       <c r="GA12" t="n">
         <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.02844077454765895</v>
+        <v>-0.04154562120512977</v>
       </c>
       <c r="GC12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE12" t="n">
         <v>-0</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.01079931866138898</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
         <v>-0</v>
@@ -7263,130 +7263,130 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1348371934891699</v>
+        <v>0.3268034408455837</v>
       </c>
       <c r="C13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.277122682413609</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06726686047198754</v>
+        <v>-0.1058932470532249</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0.2855569954863247</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.1096663625942923</v>
+        <v>0.2168084777427361</v>
       </c>
       <c r="L13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1904970155638162</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.00256856834976747</v>
+        <v>-0.08379488651862908</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-0.2464841909373904</v>
       </c>
       <c r="P13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.009929849644418572</v>
+        <v>0.05956283581291213</v>
       </c>
       <c r="U13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.04528576266068147</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.104896040708029</v>
+        <v>-0.001225833401078912</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>0.01151444811975929</v>
       </c>
       <c r="Y13" t="n">
         <v>-0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.05746719972317584</v>
+        <v>0.06310823751596506</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.09768626715034327</v>
+        <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.1232415587034665</v>
+        <v>0.06959444996247496</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0</v>
+        <v>-0.002186028697061561</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI13" t="n">
         <v>-0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.02876177032213328</v>
+        <v>0.06614810857290319</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.03053903138425503</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.02163630221366644</v>
+        <v>-0.01603999414141288</v>
       </c>
       <c r="AP13" t="n">
-        <v>-0</v>
+        <v>-0.04434495428115299</v>
       </c>
       <c r="AQ13" t="n">
         <v>0</v>
@@ -7395,79 +7395,79 @@
         <v>-0</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.1232951046346956</v>
+        <v>0.3448998081073988</v>
       </c>
       <c r="AV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.08092156176587664</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0288556338069287</v>
+        <v>-0.03208987599191472</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>-0.15230732543358</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB13" t="n">
         <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0.01817715645984726</v>
+        <v>0.06409305123801945</v>
       </c>
       <c r="BE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.1202236168724558</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.001591265574595197</v>
+        <v>-0.08951310473147098</v>
       </c>
       <c r="BH13" t="n">
-        <v>0</v>
+        <v>-0.09428319918120509</v>
       </c>
       <c r="BI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.05524067673232094</v>
+        <v>0.1198757440524535</v>
       </c>
       <c r="BN13" t="n">
         <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.03129019120036831</v>
+        <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.002409765420672741</v>
+        <v>0.06440652925772231</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>0.028985648156144</v>
       </c>
       <c r="BR13" t="n">
         <v>-0</v>
@@ -7476,31 +7476,31 @@
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>-0.02353174103989672</v>
+        <v>0.1552988194534446</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.1185451557291264</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>-0.07174821549205589</v>
+        <v>-0.04696480134000203</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-0</v>
+        <v>-0.0904079849604541</v>
       </c>
       <c r="CA13" t="n">
         <v>-0</v>
       </c>
       <c r="CB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC13" t="n">
         <v>0</v>
@@ -7509,19 +7509,19 @@
         <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.04714234691547291</v>
+        <v>-0.07441968184134365</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>-0.06673395230601427</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.007457716855316622</v>
+        <v>-0.00928170907382255</v>
       </c>
       <c r="CI13" t="n">
-        <v>0</v>
+        <v>0.07309898408206154</v>
       </c>
       <c r="CJ13" t="n">
         <v>-0</v>
@@ -7533,25 +7533,25 @@
         <v>0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.00826140343390467</v>
+        <v>-0.05876112847347138</v>
       </c>
       <c r="CO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP13" t="n">
-        <v>-0.02134880304052533</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.1468426477926816</v>
+        <v>-0.04189951828595378</v>
       </c>
       <c r="CR13" t="n">
-        <v>0</v>
+        <v>-0.01166103753050371</v>
       </c>
       <c r="CS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT13" t="n">
         <v>-0</v>
@@ -7563,19 +7563,19 @@
         <v>-0</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.03611748357413871</v>
+        <v>-0.05352737078747735</v>
       </c>
       <c r="CX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>-0.06033569771612698</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.008821177850111045</v>
+        <v>-0.001821849819120699</v>
       </c>
       <c r="DA13" t="n">
-        <v>0</v>
+        <v>0.07110067872425878</v>
       </c>
       <c r="DB13" t="n">
         <v>0</v>
@@ -7584,25 +7584,25 @@
         <v>-0</v>
       </c>
       <c r="DD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE13" t="n">
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.05045553199818054</v>
+        <v>-0.04754322138464196</v>
       </c>
       <c r="DG13" t="n">
         <v>-0</v>
       </c>
       <c r="DH13" t="n">
-        <v>-0.004036113442659204</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>-0.05693934664470066</v>
+        <v>0.03994494150260271</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0</v>
+        <v>-0.001631525048909809</v>
       </c>
       <c r="DK13" t="n">
         <v>0</v>
@@ -7611,31 +7611,31 @@
         <v>0</v>
       </c>
       <c r="DM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>-0.008208478022882987</v>
+        <v>-0.0257624113817404</v>
       </c>
       <c r="DP13" t="n">
         <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.01962898986318905</v>
+        <v>-0</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.05597332927377779</v>
+        <v>0.02752452856745083</v>
       </c>
       <c r="DS13" t="n">
-        <v>0</v>
+        <v>0.007779903320605446</v>
       </c>
       <c r="DT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV13" t="n">
         <v>0</v>
@@ -7644,22 +7644,22 @@
         <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.06043748181244329</v>
+        <v>0.004306340539590179</v>
       </c>
       <c r="DY13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.04371460888574932</v>
+        <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.01648322211352822</v>
+        <v>0.003038787745041937</v>
       </c>
       <c r="EB13" t="n">
-        <v>-0</v>
+        <v>0.008278253069756271</v>
       </c>
       <c r="EC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED13" t="n">
         <v>-0</v>
@@ -7671,25 +7671,25 @@
         <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.03436022268604255</v>
+        <v>-0.02433570121183317</v>
       </c>
       <c r="EH13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI13" t="n">
-        <v>-0.1113683521164317</v>
+        <v>-0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-0.05299554466571361</v>
+        <v>0.01016035538014561</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0</v>
+        <v>0.06892601495058512</v>
       </c>
       <c r="EL13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN13" t="n">
         <v>0</v>
@@ -7698,22 +7698,22 @@
         <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.01857079545818822</v>
+        <v>-0.005426649583676312</v>
       </c>
       <c r="EQ13" t="n">
         <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.01172611927122456</v>
+        <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.01545087838675358</v>
+        <v>-0.03971781370304182</v>
       </c>
       <c r="ET13" t="n">
-        <v>-0</v>
+        <v>0.093292732912857</v>
       </c>
       <c r="EU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV13" t="n">
         <v>0</v>
@@ -7725,19 +7725,19 @@
         <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.04107924001086677</v>
+        <v>-0.04550629870324319</v>
       </c>
       <c r="EZ13" t="n">
         <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>-0.05815253908602103</v>
+        <v>-0</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.02143240808408982</v>
+        <v>-0.00421929075625742</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0</v>
+        <v>0.07412451157529959</v>
       </c>
       <c r="FD13" t="n">
         <v>-0</v>
@@ -7752,73 +7752,73 @@
         <v>-0</v>
       </c>
       <c r="FH13" t="n">
-        <v>-0.01383573845541616</v>
+        <v>-0.06407312802528131</v>
       </c>
       <c r="FI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>-0.08461621014032264</v>
+        <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.05084101607719339</v>
+        <v>-0.00523951700211488</v>
       </c>
       <c r="FL13" t="n">
-        <v>0</v>
+        <v>-0.03053805518936084</v>
       </c>
       <c r="FM13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO13" t="n">
         <v>0</v>
       </c>
       <c r="FP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.01776693565207528</v>
+        <v>0.01085492861710668</v>
       </c>
       <c r="FR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.0007242003230722927</v>
+        <v>-0</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.05109359913082505</v>
+        <v>-0.03579873566741171</v>
       </c>
       <c r="FU13" t="n">
-        <v>0</v>
+        <v>-0.01188446407079929</v>
       </c>
       <c r="FV13" t="n">
         <v>-0</v>
       </c>
       <c r="FW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY13" t="n">
         <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.02905723488262688</v>
+        <v>-0.05202440932124074</v>
       </c>
       <c r="GA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.05233522309430293</v>
+        <v>-0</v>
       </c>
       <c r="GC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>-0</v>
+        <v>-0.03385952707118326</v>
       </c>
       <c r="GE13" t="n">
         <v>-0</v>
@@ -7827,24 +7827,24 @@
         <v>-0</v>
       </c>
       <c r="GG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.3075097996135598</v>
       </c>
       <c r="C14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2595219087637062</v>
+        <v>-0.08289797408379343</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01252249895255317</v>
+        <v>-0.0528533317394096</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -7853,88 +7853,88 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1102253360726922</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.1760444354264777</v>
       </c>
       <c r="L14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1943459808571496</v>
+        <v>-0.06510957687361156</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.03648244694736395</v>
+        <v>-0.0418245590682891</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1045304004168771</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.07198870147729869</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.007690755399402804</v>
+        <v>-0.007910862985643832</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.0915228811957257</v>
+        <v>0.05217440829986784</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y14" t="n">
         <v>-0</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.05218356929733737</v>
+        <v>-0</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0</v>
+        <v>0.07041798095576833</v>
       </c>
       <c r="AD14" t="n">
         <v>-0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.07427996006717827</v>
+        <v>-0.01379288546585766</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.03537620077055267</v>
+        <v>-0.006780078360359588</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
         <v>-0</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.03260710689899605</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
         <v>-0</v>
@@ -7943,25 +7943,25 @@
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0</v>
+        <v>-0.006893981107993738</v>
       </c>
       <c r="AM14" t="n">
         <v>-0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.09296524088859999</v>
+        <v>-0.05194997429274074</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.04617045884234533</v>
+        <v>-0.06150343491297752</v>
       </c>
       <c r="AP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0.02888168981173695</v>
+        <v>-0</v>
       </c>
       <c r="AS14" t="n">
         <v>0</v>
@@ -7970,16 +7970,16 @@
         <v>-0</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0</v>
+        <v>0.3128449043316557</v>
       </c>
       <c r="AV14" t="n">
         <v>-0</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.1270934285240573</v>
+        <v>0.05907127176156755</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.001694425015310748</v>
+        <v>0.06845799804331318</v>
       </c>
       <c r="AY14" t="n">
         <v>-0</v>
@@ -7988,133 +7988,133 @@
         <v>0</v>
       </c>
       <c r="BA14" t="n">
-        <v>-0.1703584086165359</v>
+        <v>-0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC14" t="n">
         <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>0.02010585929301455</v>
       </c>
       <c r="BE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.1167842363531294</v>
+        <v>-0.05262560211835438</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.009029341172017745</v>
+        <v>-0.08911228652427812</v>
       </c>
       <c r="BH14" t="n">
         <v>0</v>
       </c>
       <c r="BI14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-0.02013071568679847</v>
+        <v>0</v>
       </c>
       <c r="BK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM14" t="n">
-        <v>-0</v>
+        <v>0.0885490590193222</v>
       </c>
       <c r="BN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.01191343961430306</v>
+        <v>0.03492960414432696</v>
       </c>
       <c r="BP14" t="n">
-        <v>-0.01841344864654601</v>
+        <v>0.1149067929714089</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR14" t="n">
         <v>-0</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.06440884166678387</v>
+        <v>-0</v>
       </c>
       <c r="BT14" t="n">
         <v>-0</v>
       </c>
       <c r="BU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV14" t="n">
-        <v>-0</v>
+        <v>0.1428405541437046</v>
       </c>
       <c r="BW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.1282282542945384</v>
+        <v>0.06103416374692897</v>
       </c>
       <c r="BY14" t="n">
-        <v>-0.02710526523505922</v>
+        <v>0.05259511339825992</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB14" t="n">
-        <v>-0.1356457567071378</v>
+        <v>-0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE14" t="n">
-        <v>-0</v>
+        <v>-0.07500211412399199</v>
       </c>
       <c r="CF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG14" t="n">
-        <v>-0.08025260535385668</v>
+        <v>-0.002223368120522111</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.03492514684143262</v>
+        <v>-0.01079353342132621</v>
       </c>
       <c r="CI14" t="n">
         <v>0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.02548363116062108</v>
+        <v>0</v>
       </c>
       <c r="CL14" t="n">
         <v>-0</v>
       </c>
       <c r="CM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>-0</v>
+        <v>-0.04305780523806122</v>
       </c>
       <c r="CO14" t="n">
         <v>0</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0.1126345766570755</v>
+        <v>-0.08380614175758765</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.1459064641595078</v>
+        <v>-0.07288419866959012</v>
       </c>
       <c r="CR14" t="n">
         <v>0</v>
@@ -8123,34 +8123,34 @@
         <v>0</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.07906975169277586</v>
+        <v>-0</v>
       </c>
       <c r="CU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW14" t="n">
-        <v>0</v>
+        <v>-0.05612494857695279</v>
       </c>
       <c r="CX14" t="n">
         <v>-0</v>
       </c>
       <c r="CY14" t="n">
-        <v>-0.07178373901137008</v>
+        <v>0.01051286095698272</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.03478277573593259</v>
+        <v>-0.01309526956096678</v>
       </c>
       <c r="DA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB14" t="n">
         <v>0</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.01679343950631833</v>
+        <v>0</v>
       </c>
       <c r="DD14" t="n">
         <v>0</v>
@@ -8159,133 +8159,133 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>-0</v>
+        <v>0.001789255809351002</v>
       </c>
       <c r="DG14" t="n">
         <v>0</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.001589782838432102</v>
+        <v>0.01682024214001719</v>
       </c>
       <c r="DI14" t="n">
-        <v>-0.06289015002553505</v>
+        <v>0.03058076087780952</v>
       </c>
       <c r="DJ14" t="n">
         <v>0</v>
       </c>
       <c r="DK14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL14" t="n">
-        <v>-0.03611459585828825</v>
+        <v>0</v>
       </c>
       <c r="DM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO14" t="n">
-        <v>0</v>
+        <v>-0.04447540001083326</v>
       </c>
       <c r="DP14" t="n">
         <v>0</v>
       </c>
       <c r="DQ14" t="n">
-        <v>-0.003409736362794845</v>
+        <v>0.05692653500548193</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.0468642439636389</v>
+        <v>-0.04225106196711743</v>
       </c>
       <c r="DS14" t="n">
         <v>0</v>
       </c>
       <c r="DT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.0508088209943343</v>
+        <v>0</v>
       </c>
       <c r="DV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW14" t="n">
         <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>-0</v>
+        <v>0.01847706152733745</v>
       </c>
       <c r="DY14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.02032243389457471</v>
+        <v>-0.0002793227703306174</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.002221972315904296</v>
+        <v>-0.06008040542301718</v>
       </c>
       <c r="EB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC14" t="n">
         <v>0</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.04035700773876599</v>
+        <v>0</v>
       </c>
       <c r="EE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG14" t="n">
-        <v>-0</v>
+        <v>-0.07007437956224245</v>
       </c>
       <c r="EH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI14" t="n">
-        <v>-0.1517451370227931</v>
+        <v>0.0216805141003877</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.0343865048992253</v>
+        <v>0.06058974899360964</v>
       </c>
       <c r="EK14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.06653687696794498</v>
+        <v>-0</v>
       </c>
       <c r="EN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO14" t="n">
         <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>-0</v>
+        <v>-0.04036622660075021</v>
       </c>
       <c r="EQ14" t="n">
         <v>-0</v>
       </c>
       <c r="ER14" t="n">
-        <v>-0.03190947393478968</v>
+        <v>0.02368528819930784</v>
       </c>
       <c r="ES14" t="n">
-        <v>-0.0096571106000105</v>
+        <v>0.01794754650917537</v>
       </c>
       <c r="ET14" t="n">
         <v>-0</v>
       </c>
       <c r="EU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV14" t="n">
-        <v>-9.608859796816646e-05</v>
+        <v>-0</v>
       </c>
       <c r="EW14" t="n">
         <v>-0</v>
@@ -8294,79 +8294,79 @@
         <v>0</v>
       </c>
       <c r="EY14" t="n">
-        <v>-0</v>
+        <v>-0.05680701210764245</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA14" t="n">
-        <v>-0.07247659907107733</v>
+        <v>0.004096212270214316</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.04079529346776175</v>
+        <v>0.006816382166310885</v>
       </c>
       <c r="FC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD14" t="n">
         <v>-0</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.03913723966264458</v>
+        <v>0</v>
       </c>
       <c r="FF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG14" t="n">
         <v>0</v>
       </c>
       <c r="FH14" t="n">
-        <v>-0</v>
+        <v>0.01449431779626665</v>
       </c>
       <c r="FI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ14" t="n">
-        <v>-0.03669124025050553</v>
+        <v>0.03333414687400439</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.09484495267803099</v>
+        <v>-0.06675993644179021</v>
       </c>
       <c r="FL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN14" t="n">
-        <v>-0.01407541076046102</v>
+        <v>0</v>
       </c>
       <c r="FO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP14" t="n">
         <v>0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>-0</v>
+        <v>-0.005319310417273008</v>
       </c>
       <c r="FR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS14" t="n">
-        <v>-0.01009972200898927</v>
+        <v>-0.003417622058566924</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.02342313172740639</v>
+        <v>0.0002882184527518195</v>
       </c>
       <c r="FU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.01659246373898228</v>
+        <v>0</v>
       </c>
       <c r="FX14" t="n">
         <v>0</v>
@@ -8375,25 +8375,25 @@
         <v>-0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>-0</v>
+        <v>-0.001871736915185129</v>
       </c>
       <c r="GA14" t="n">
         <v>-0</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.001207010711039416</v>
+        <v>-0.05057877549392156</v>
       </c>
       <c r="GC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.01802598182259143</v>
+        <v>0</v>
       </c>
       <c r="GG14" t="n">
         <v>-0</v>
@@ -8401,76 +8401,76 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.6240077092417947</v>
       </c>
       <c r="C15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8601988196968027</v>
+        <v>-0.2019196862685658</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1321801074836146</v>
+        <v>-0.201386282424118</v>
       </c>
       <c r="F15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2311815566030908</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>-0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.4644125710139198</v>
       </c>
       <c r="L15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6780462985746426</v>
+        <v>-0.1838915420730735</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.07376094865962372</v>
+        <v>-0.1798124606277771</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.1274785142348563</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.155818605489644</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V15" t="n">
-        <v>0.06912255575749478</v>
+        <v>0.0111795880564866</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.426833861930949</v>
+        <v>0.03693873853019431</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y15" t="n">
         <v>-0</v>
@@ -8479,76 +8479,76 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.04056090334659476</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>0.1533393889777874</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.1918356867418435</v>
+        <v>-0.04718829055777116</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.005758426820861133</v>
+        <v>-0.06061067017625717</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI15" t="n">
         <v>-0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.1001799026351615</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0</v>
+        <v>0.08553455350057815</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.2375053278960869</v>
+        <v>-0.03178951001111925</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.03557341746679914</v>
+        <v>-0.04690699779286359</v>
       </c>
       <c r="AP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR15" t="n">
         <v>-0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.008589937616368299</v>
+        <v>0</v>
       </c>
       <c r="AT15" t="n">
         <v>-0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>0.55350530082</v>
       </c>
       <c r="AV15" t="n">
         <v>-0</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.5219454779893331</v>
+        <v>0.009081616303530913</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.1321194414502935</v>
+        <v>0.09341964386953873</v>
       </c>
       <c r="AY15" t="n">
         <v>-0</v>
@@ -8557,25 +8557,25 @@
         <v>0</v>
       </c>
       <c r="BA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB15" t="n">
-        <v>-0.243869762717644</v>
+        <v>-0</v>
       </c>
       <c r="BC15" t="n">
         <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>0.05685157259459078</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.2418175561482844</v>
+        <v>-0.08496973143537678</v>
       </c>
       <c r="BG15" t="n">
-        <v>-0.06135647548418873</v>
+        <v>-0.2278571996198468</v>
       </c>
       <c r="BH15" t="n">
         <v>0</v>
@@ -8584,28 +8584,28 @@
         <v>-0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK15" t="n">
-        <v>-0.05185548724426456</v>
+        <v>0</v>
       </c>
       <c r="BL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM15" t="n">
-        <v>-0</v>
+        <v>0.05643452134005034</v>
       </c>
       <c r="BN15" t="n">
         <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>-0.02107452532792474</v>
+        <v>0.04565301439226413</v>
       </c>
       <c r="BP15" t="n">
-        <v>-0.01377709486952074</v>
+        <v>0.05417426955094477</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR15" t="n">
         <v>-0</v>
@@ -8614,22 +8614,22 @@
         <v>-0</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.02576181184151261</v>
+        <v>-0</v>
       </c>
       <c r="BU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV15" t="n">
-        <v>-0</v>
+        <v>0.3468563643092553</v>
       </c>
       <c r="BW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.3852905583434805</v>
+        <v>-0.02960831179353753</v>
       </c>
       <c r="BY15" t="n">
-        <v>-0.01172273081159069</v>
+        <v>0.05965846174205219</v>
       </c>
       <c r="BZ15" t="n">
         <v>-0</v>
@@ -8641,322 +8641,322 @@
         <v>0</v>
       </c>
       <c r="CC15" t="n">
-        <v>-0.2543030136063854</v>
+        <v>0</v>
       </c>
       <c r="CD15" t="n">
         <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>-0</v>
+        <v>-0.1225635062664247</v>
       </c>
       <c r="CF15" t="n">
         <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>-0.2202279768829218</v>
+        <v>0.04173898438971905</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.0006912711207406249</v>
+        <v>-0.01060216619764783</v>
       </c>
       <c r="CI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.005999621450475662</v>
+        <v>0</v>
       </c>
       <c r="CM15" t="n">
         <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>-0</v>
+        <v>-0.06027523766354648</v>
       </c>
       <c r="CO15" t="n">
         <v>-0</v>
       </c>
       <c r="CP15" t="n">
-        <v>-0.1692053158418686</v>
+        <v>-0.05778594275967829</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.235554673686822</v>
+        <v>-0.1944969420702412</v>
       </c>
       <c r="CR15" t="n">
         <v>0</v>
       </c>
       <c r="CS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT15" t="n">
         <v>-0</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.02850655208219349</v>
+        <v>-0</v>
       </c>
       <c r="CV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW15" t="n">
-        <v>0</v>
+        <v>-0.1089488638439297</v>
       </c>
       <c r="CX15" t="n">
         <v>-0</v>
       </c>
       <c r="CY15" t="n">
-        <v>-0.1936181969400867</v>
+        <v>0.05443790041667349</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.01366352240247191</v>
+        <v>-0.01313248379032517</v>
       </c>
       <c r="DA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.01033486384718786</v>
+        <v>0</v>
       </c>
       <c r="DE15" t="n">
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>-0</v>
+        <v>-0.04455938998689774</v>
       </c>
       <c r="DG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH15" t="n">
-        <v>-0.0436658896220157</v>
+        <v>0.03618968848503369</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.01046131109007017</v>
+        <v>-0.001027446358978722</v>
       </c>
       <c r="DJ15" t="n">
         <v>0</v>
       </c>
       <c r="DK15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL15" t="n">
         <v>0</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.008920960076103912</v>
+        <v>0</v>
       </c>
       <c r="DN15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO15" t="n">
-        <v>-0</v>
+        <v>-0.05311631307937018</v>
       </c>
       <c r="DP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>-0.006768568858627041</v>
+        <v>-0.009939607463146136</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.00840734367095697</v>
+        <v>-0.06399448592919321</v>
       </c>
       <c r="DS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV15" t="n">
-        <v>-0.1359908832383083</v>
+        <v>0</v>
       </c>
       <c r="DW15" t="n">
         <v>0</v>
       </c>
       <c r="DX15" t="n">
-        <v>-0</v>
+        <v>0.0786119632065547</v>
       </c>
       <c r="DY15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.1077271630823952</v>
+        <v>-0.05396902240201112</v>
       </c>
       <c r="EA15" t="n">
-        <v>-0.00212875209309703</v>
+        <v>-0.002394977419055564</v>
       </c>
       <c r="EB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED15" t="n">
         <v>-0</v>
       </c>
       <c r="EE15" t="n">
-        <v>-0.1649598899518346</v>
+        <v>-0</v>
       </c>
       <c r="EF15" t="n">
         <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>-0</v>
+        <v>-0.09702115180040152</v>
       </c>
       <c r="EH15" t="n">
         <v>0</v>
       </c>
       <c r="EI15" t="n">
-        <v>-0.2691414309854639</v>
+        <v>0.04928194035325103</v>
       </c>
       <c r="EJ15" t="n">
-        <v>-0.1135478505339881</v>
+        <v>0.0619347571341502</v>
       </c>
       <c r="EK15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM15" t="n">
         <v>-0</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.01628714214847628</v>
+        <v>-0</v>
       </c>
       <c r="EO15" t="n">
         <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>-0</v>
+        <v>-0.07277998574577668</v>
       </c>
       <c r="EQ15" t="n">
         <v>0</v>
       </c>
       <c r="ER15" t="n">
-        <v>-0.1027080571932309</v>
+        <v>0.04919306569853205</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.0628099358466301</v>
+        <v>0.03818619416619393</v>
       </c>
       <c r="ET15" t="n">
         <v>-0</v>
       </c>
       <c r="EU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.1204255536601581</v>
+        <v>-0</v>
       </c>
       <c r="EX15" t="n">
         <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>-0</v>
+        <v>-0.1164318040261239</v>
       </c>
       <c r="EZ15" t="n">
         <v>0</v>
       </c>
       <c r="FA15" t="n">
-        <v>-0.1782464043330937</v>
+        <v>0.06614645674461953</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.008597812306012781</v>
+        <v>-0.02015073287744071</v>
       </c>
       <c r="FC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.04644948421074763</v>
+        <v>-0</v>
       </c>
       <c r="FG15" t="n">
         <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>0</v>
+        <v>-0.01883663735729098</v>
       </c>
       <c r="FI15" t="n">
         <v>-0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>-0.1657435850308612</v>
+        <v>0.06209488728623378</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.07518374128990878</v>
+        <v>-0.04109498231367242</v>
       </c>
       <c r="FL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN15" t="n">
         <v>0</v>
       </c>
       <c r="FO15" t="n">
-        <v>-0.07339157064815321</v>
+        <v>0</v>
       </c>
       <c r="FP15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>-0</v>
+        <v>-0.01434065247845525</v>
       </c>
       <c r="FR15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.003399035535460585</v>
+        <v>-0.19250091317909</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.01901334070776478</v>
+        <v>0.02456805166247301</v>
       </c>
       <c r="FU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV15" t="n">
         <v>-0</v>
       </c>
       <c r="FW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX15" t="n">
-        <v>-0.04951196270814415</v>
+        <v>0</v>
       </c>
       <c r="FY15" t="n">
         <v>-0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>-0</v>
+        <v>-0.04834550823517372</v>
       </c>
       <c r="GA15" t="n">
         <v>0</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.02073178387992664</v>
+        <v>-0.02737720484026807</v>
       </c>
       <c r="GC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE15" t="n">
         <v>-0</v>
@@ -8965,18 +8965,18 @@
         <v>0</v>
       </c>
       <c r="GG15" t="n">
-        <v>-0.05407336162616885</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8997,13 +8997,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -9024,13 +9024,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -9051,13 +9051,13 @@
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
@@ -9078,13 +9078,13 @@
         <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
         <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN16" t="n">
         <v>0</v>
@@ -9105,13 +9105,13 @@
         <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
       </c>
       <c r="AV16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW16" t="n">
         <v>0</v>
@@ -9132,13 +9132,13 @@
         <v>0</v>
       </c>
       <c r="BC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD16" t="n">
         <v>0</v>
       </c>
       <c r="BE16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF16" t="n">
         <v>0</v>
@@ -9159,13 +9159,13 @@
         <v>0</v>
       </c>
       <c r="BL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM16" t="n">
         <v>0</v>
       </c>
       <c r="BN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO16" t="n">
         <v>0</v>
@@ -9186,13 +9186,13 @@
         <v>0</v>
       </c>
       <c r="BU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV16" t="n">
         <v>0</v>
       </c>
       <c r="BW16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BX16" t="n">
         <v>0</v>
@@ -9213,13 +9213,13 @@
         <v>0</v>
       </c>
       <c r="CD16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
       </c>
       <c r="CF16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG16" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>0</v>
       </c>
       <c r="CM16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN16" t="n">
         <v>0</v>
       </c>
       <c r="CO16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP16" t="n">
         <v>0</v>
@@ -9294,13 +9294,13 @@
         <v>0</v>
       </c>
       <c r="DE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="n">
         <v>0</v>
       </c>
       <c r="DG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="DN16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO16" t="n">
         <v>0</v>
       </c>
       <c r="DP16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ16" t="n">
         <v>0</v>
@@ -9375,13 +9375,13 @@
         <v>0</v>
       </c>
       <c r="EF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG16" t="n">
         <v>0</v>
       </c>
       <c r="EH16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI16" t="n">
         <v>0</v>
@@ -9402,13 +9402,13 @@
         <v>0</v>
       </c>
       <c r="EO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP16" t="n">
         <v>0</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER16" t="n">
         <v>0</v>
@@ -9429,13 +9429,13 @@
         <v>0</v>
       </c>
       <c r="EX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY16" t="n">
         <v>0</v>
       </c>
       <c r="EZ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA16" t="n">
         <v>0</v>
@@ -9456,13 +9456,13 @@
         <v>0</v>
       </c>
       <c r="FG16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH16" t="n">
         <v>0</v>
       </c>
       <c r="FI16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ16" t="n">
         <v>0</v>
@@ -9483,13 +9483,13 @@
         <v>0</v>
       </c>
       <c r="FP16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ16" t="n">
         <v>0</v>
       </c>
       <c r="FR16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS16" t="n">
         <v>0</v>
@@ -9539,160 +9539,160 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4212344266976805</v>
+        <v>-0</v>
       </c>
       <c r="B17" t="n">
-        <v>-0</v>
+        <v>0.3685967015130235</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1541804827982854</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03352494672966413</v>
+        <v>-0.2781032828360044</v>
       </c>
       <c r="F17" t="n">
-        <v>-0</v>
+        <v>-0.1871242634142878</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H17" t="n">
         <v>-0</v>
       </c>
       <c r="I17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.39989331820709</v>
+        <v>-0</v>
       </c>
       <c r="K17" t="n">
-        <v>-0</v>
+        <v>0.24957319694019</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.1441232229564485</v>
+        <v>-0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1182923576959059</v>
+        <v>-0.2282400921005215</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-0.1542195649825133</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q17" t="n">
         <v>-0</v>
       </c>
       <c r="R17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.004202157671455727</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-0</v>
+        <v>0.07018457450347945</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.06894192029582913</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.135186363725858</v>
+        <v>-0.05330034571181958</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>0.06117650262151022</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.04054229907617024</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0</v>
+        <v>0.05233759805115236</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.03018682237961717</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.05658193567662214</v>
+        <v>0.009549356373882633</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0</v>
+        <v>0.0309338187564397</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ17" t="n">
         <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.0801918443900585</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>0.09683126494914651</v>
       </c>
       <c r="AM17" t="n">
-        <v>-0.01098379353845184</v>
+        <v>-0</v>
       </c>
       <c r="AN17" t="n">
         <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>-0.01149060872242466</v>
+        <v>-0.01758251070048101</v>
       </c>
       <c r="AP17" t="n">
-        <v>-0</v>
+        <v>-0.05953930471744975</v>
       </c>
       <c r="AQ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS17" t="n">
         <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.1802886517008977</v>
+        <v>-0</v>
       </c>
       <c r="AU17" t="n">
-        <v>0</v>
+        <v>0.2986335560354696</v>
       </c>
       <c r="AV17" t="n">
-        <v>-0.1079166852410829</v>
+        <v>0</v>
       </c>
       <c r="AW17" t="n">
         <v>0</v>
       </c>
       <c r="AX17" t="n">
-        <v>-0.04836428659475029</v>
+        <v>-0.1321245746781035</v>
       </c>
       <c r="AY17" t="n">
-        <v>0</v>
+        <v>-0.1315707527511543</v>
       </c>
       <c r="AZ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA17" t="n">
         <v>-0</v>
@@ -9701,49 +9701,49 @@
         <v>0</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.0966494582578563</v>
+        <v>0</v>
       </c>
       <c r="BD17" t="n">
-        <v>0</v>
+        <v>0.05601356926332476</v>
       </c>
       <c r="BE17" t="n">
-        <v>-0.03278656883973907</v>
+        <v>0</v>
       </c>
       <c r="BF17" t="n">
         <v>0</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.07739414765776487</v>
+        <v>-0.1659374070044568</v>
       </c>
       <c r="BH17" t="n">
-        <v>-0</v>
+        <v>-0.03398725600464286</v>
       </c>
       <c r="BI17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ17" t="n">
         <v>0</v>
       </c>
       <c r="BK17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL17" t="n">
-        <v>-0.02815328175012225</v>
+        <v>-0</v>
       </c>
       <c r="BM17" t="n">
-        <v>0</v>
+        <v>0.1002948702207256</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.03961979759745612</v>
+        <v>0</v>
       </c>
       <c r="BO17" t="n">
         <v>-0</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.1134213268530581</v>
+        <v>0.01512619969654193</v>
       </c>
       <c r="BQ17" t="n">
-        <v>-0</v>
+        <v>0.05657152069048066</v>
       </c>
       <c r="BR17" t="n">
         <v>-0</v>
@@ -9752,25 +9752,25 @@
         <v>0</v>
       </c>
       <c r="BT17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.1531654637535538</v>
+        <v>-0</v>
       </c>
       <c r="BV17" t="n">
-        <v>0</v>
+        <v>0.1837466607351656</v>
       </c>
       <c r="BW17" t="n">
-        <v>-0.05040762320485431</v>
+        <v>0</v>
       </c>
       <c r="BX17" t="n">
         <v>0</v>
       </c>
       <c r="BY17" t="n">
-        <v>-0.01816833035849626</v>
+        <v>-0.07519229296621117</v>
       </c>
       <c r="BZ17" t="n">
-        <v>-0</v>
+        <v>0.007677057413584223</v>
       </c>
       <c r="CA17" t="n">
         <v>-0</v>
@@ -9779,28 +9779,28 @@
         <v>-0</v>
       </c>
       <c r="CC17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD17" t="n">
-        <v>-0.09875336706625419</v>
+        <v>-0</v>
       </c>
       <c r="CE17" t="n">
-        <v>0</v>
+        <v>-0.05204063479703097</v>
       </c>
       <c r="CF17" t="n">
-        <v>0.03424770111523048</v>
+        <v>0</v>
       </c>
       <c r="CG17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.006870446728622128</v>
+        <v>0.03314103388814345</v>
       </c>
       <c r="CI17" t="n">
-        <v>0</v>
+        <v>0.05381919783977263</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK17" t="n">
         <v>0</v>
@@ -9809,49 +9809,49 @@
         <v>0</v>
       </c>
       <c r="CM17" t="n">
-        <v>0.004408050231228523</v>
+        <v>0</v>
       </c>
       <c r="CN17" t="n">
-        <v>-0</v>
+        <v>-0.004494574020515435</v>
       </c>
       <c r="CO17" t="n">
-        <v>-0.01349181996368267</v>
+        <v>-0</v>
       </c>
       <c r="CP17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ17" t="n">
-        <v>-0.06572654393690773</v>
+        <v>0.0001691228491215888</v>
       </c>
       <c r="CR17" t="n">
-        <v>0</v>
+        <v>-0.03195012559676093</v>
       </c>
       <c r="CS17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT17" t="n">
         <v>-0</v>
       </c>
       <c r="CU17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV17" t="n">
-        <v>-0.08686583401974984</v>
+        <v>0</v>
       </c>
       <c r="CW17" t="n">
-        <v>-0</v>
+        <v>-0.03329890515501734</v>
       </c>
       <c r="CX17" t="n">
-        <v>0.0343410095356248</v>
+        <v>-0</v>
       </c>
       <c r="CY17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>-0.03319178727082821</v>
+        <v>0.0270820169801444</v>
       </c>
       <c r="DA17" t="n">
-        <v>-0</v>
+        <v>0.06796782717730201</v>
       </c>
       <c r="DB17" t="n">
         <v>0</v>
@@ -9860,25 +9860,25 @@
         <v>-0</v>
       </c>
       <c r="DD17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE17" t="n">
-        <v>0.000493971106693602</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>0</v>
+        <v>-0.008291441077361256</v>
       </c>
       <c r="DG17" t="n">
-        <v>0.01605288922746877</v>
+        <v>0</v>
       </c>
       <c r="DH17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI17" t="n">
-        <v>0.01551614950790629</v>
+        <v>0.01790128170127086</v>
       </c>
       <c r="DJ17" t="n">
-        <v>-0</v>
+        <v>-0.009203341166130667</v>
       </c>
       <c r="DK17" t="n">
         <v>0</v>
@@ -9887,82 +9887,82 @@
         <v>0</v>
       </c>
       <c r="DM17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN17" t="n">
-        <v>-0.001858412350162266</v>
+        <v>-0</v>
       </c>
       <c r="DO17" t="n">
-        <v>0</v>
+        <v>-0.01210276620559145</v>
       </c>
       <c r="DP17" t="n">
-        <v>0.008511882025049754</v>
+        <v>-0</v>
       </c>
       <c r="DQ17" t="n">
         <v>-0</v>
       </c>
       <c r="DR17" t="n">
-        <v>-0.02239634229848982</v>
+        <v>0.01940626137382971</v>
       </c>
       <c r="DS17" t="n">
-        <v>-0</v>
+        <v>-0.08560274168158054</v>
       </c>
       <c r="DT17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW17" t="n">
-        <v>0.03340829556081912</v>
+        <v>-0</v>
       </c>
       <c r="DX17" t="n">
-        <v>-0</v>
+        <v>0.002871105336872884</v>
       </c>
       <c r="DY17" t="n">
-        <v>-0.02183655618830813</v>
+        <v>0</v>
       </c>
       <c r="DZ17" t="n">
         <v>0</v>
       </c>
       <c r="EA17" t="n">
-        <v>0.02449133288757785</v>
+        <v>-0.05429351826613593</v>
       </c>
       <c r="EB17" t="n">
-        <v>-0</v>
+        <v>-0.0457939081856664</v>
       </c>
       <c r="EC17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE17" t="n">
         <v>-0</v>
       </c>
       <c r="EF17" t="n">
-        <v>-0.1562386105856348</v>
+        <v>0</v>
       </c>
       <c r="EG17" t="n">
-        <v>0</v>
+        <v>-0.04661038593707202</v>
       </c>
       <c r="EH17" t="n">
-        <v>0.0501544835678078</v>
+        <v>0</v>
       </c>
       <c r="EI17" t="n">
         <v>0</v>
       </c>
       <c r="EJ17" t="n">
-        <v>0.01621188643908273</v>
+        <v>0.04708341559165653</v>
       </c>
       <c r="EK17" t="n">
-        <v>0</v>
+        <v>0.03674264222151304</v>
       </c>
       <c r="EL17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM17" t="n">
         <v>0</v>
@@ -9971,22 +9971,22 @@
         <v>-0</v>
       </c>
       <c r="EO17" t="n">
-        <v>-0.022103736611096</v>
+        <v>0</v>
       </c>
       <c r="EP17" t="n">
-        <v>0</v>
+        <v>0.01862819108270855</v>
       </c>
       <c r="EQ17" t="n">
-        <v>0.01521192534217614</v>
+        <v>0</v>
       </c>
       <c r="ER17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES17" t="n">
-        <v>0.01667311082762275</v>
+        <v>0.007460158797976154</v>
       </c>
       <c r="ET17" t="n">
-        <v>-0</v>
+        <v>0.07876338582618925</v>
       </c>
       <c r="EU17" t="n">
         <v>-0</v>
@@ -9995,25 +9995,25 @@
         <v>0</v>
       </c>
       <c r="EW17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX17" t="n">
-        <v>-0.08816755167730728</v>
+        <v>0</v>
       </c>
       <c r="EY17" t="n">
-        <v>0</v>
+        <v>-0.02865595440254024</v>
       </c>
       <c r="EZ17" t="n">
-        <v>0.03047700665039278</v>
+        <v>0</v>
       </c>
       <c r="FA17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB17" t="n">
-        <v>-0.01894030488608023</v>
+        <v>0.02580813603541062</v>
       </c>
       <c r="FC17" t="n">
-        <v>0</v>
+        <v>0.06125982740231205</v>
       </c>
       <c r="FD17" t="n">
         <v>-0</v>
@@ -10025,25 +10025,25 @@
         <v>0</v>
       </c>
       <c r="FG17" t="n">
-        <v>-0.05394314027684076</v>
+        <v>0</v>
       </c>
       <c r="FH17" t="n">
-        <v>-0</v>
+        <v>-0.05052213060499685</v>
       </c>
       <c r="FI17" t="n">
-        <v>0.04815263566957673</v>
+        <v>-0</v>
       </c>
       <c r="FJ17" t="n">
         <v>-0</v>
       </c>
       <c r="FK17" t="n">
-        <v>-0.03566036347952026</v>
+        <v>-0.037310979197172</v>
       </c>
       <c r="FL17" t="n">
-        <v>0</v>
+        <v>0.03327915507972417</v>
       </c>
       <c r="FM17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN17" t="n">
         <v>-0</v>
@@ -10052,40 +10052,40 @@
         <v>0</v>
       </c>
       <c r="FP17" t="n">
-        <v>-0.002745160845556642</v>
+        <v>0</v>
       </c>
       <c r="FQ17" t="n">
-        <v>0</v>
+        <v>-0.006328707842382142</v>
       </c>
       <c r="FR17" t="n">
-        <v>0.02502158846311232</v>
+        <v>-0</v>
       </c>
       <c r="FS17" t="n">
         <v>-0</v>
       </c>
       <c r="FT17" t="n">
-        <v>-0.0001158874645942193</v>
+        <v>0.001289154298859865</v>
       </c>
       <c r="FU17" t="n">
-        <v>0</v>
+        <v>0.02075400299023397</v>
       </c>
       <c r="FV17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW17" t="n">
         <v>-0</v>
       </c>
       <c r="FX17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY17" t="n">
-        <v>0.03763692265116671</v>
+        <v>-0</v>
       </c>
       <c r="FZ17" t="n">
-        <v>0</v>
+        <v>1.998861294333652e-05</v>
       </c>
       <c r="GA17" t="n">
-        <v>-0.04784636572170302</v>
+        <v>0</v>
       </c>
       <c r="GB17" t="n">
         <v>0</v>
@@ -10094,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="GD17" t="n">
-        <v>0</v>
+        <v>-0.06418594864109732</v>
       </c>
       <c r="GE17" t="n">
         <v>-0</v>
@@ -10108,133 +10108,133 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.3685575625888082</v>
+        <v>-0</v>
       </c>
       <c r="B18" t="n">
-        <v>-0</v>
+        <v>0.2281243482239111</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.08494390500571647</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.04756146109062916</v>
+        <v>-0.2095865753981264</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-0.06104207132619198</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H18" t="n">
         <v>-0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3639530515117625</v>
+        <v>-0</v>
       </c>
       <c r="K18" t="n">
-        <v>-0</v>
+        <v>0.1562388041903718</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0710486143589745</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.1557431538648092</v>
+        <v>-0.1820082288733576</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>-0.04395406183515412</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.015240961555262</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>-0</v>
+        <v>0.04051570189459024</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.03362617216918241</v>
+        <v>-0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.1177093347075736</v>
+        <v>-0.0231700228741305</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>0.05113101280701443</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.01634390278642742</v>
+        <v>-0</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>0.04249312084915346</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.01898875732964709</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.0269978270667942</v>
+        <v>0.0006346762317174727</v>
       </c>
       <c r="AG18" t="n">
-        <v>-0</v>
+        <v>0.02553157954635416</v>
       </c>
       <c r="AH18" t="n">
         <v>-0</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ18" t="n">
         <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.06047139774552722</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>0.05442904933173712</v>
       </c>
       <c r="AM18" t="n">
-        <v>-0.002623147455811965</v>
+        <v>-0</v>
       </c>
       <c r="AN18" t="n">
         <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>-0.01317658570355729</v>
+        <v>-0.02715180319078304</v>
       </c>
       <c r="AP18" t="n">
-        <v>-0</v>
+        <v>-0.02964106726429802</v>
       </c>
       <c r="AQ18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR18" t="n">
         <v>-0</v>
@@ -10243,76 +10243,76 @@
         <v>0</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.1482749930482237</v>
+        <v>-0</v>
       </c>
       <c r="AU18" t="n">
-        <v>0</v>
+        <v>0.1806722428845347</v>
       </c>
       <c r="AV18" t="n">
-        <v>-0.05579461052553886</v>
+        <v>0</v>
       </c>
       <c r="AW18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX18" t="n">
-        <v>-0.007831159662909492</v>
+        <v>-0.09769339559563278</v>
       </c>
       <c r="AY18" t="n">
-        <v>0</v>
+        <v>-0.04127175361145454</v>
       </c>
       <c r="AZ18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA18" t="n">
         <v>-0</v>
       </c>
       <c r="BB18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.08166078837797956</v>
+        <v>-0</v>
       </c>
       <c r="BD18" t="n">
-        <v>0</v>
+        <v>0.04365607663338439</v>
       </c>
       <c r="BE18" t="n">
-        <v>-0.02539764371718887</v>
+        <v>0</v>
       </c>
       <c r="BF18" t="n">
         <v>0</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.006034350190012124</v>
+        <v>-0.1209287836300498</v>
       </c>
       <c r="BH18" t="n">
-        <v>-0</v>
+        <v>-0.01382838430797467</v>
       </c>
       <c r="BI18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ18" t="n">
         <v>0</v>
       </c>
       <c r="BK18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL18" t="n">
-        <v>-0.02296342236564001</v>
+        <v>-0</v>
       </c>
       <c r="BM18" t="n">
-        <v>0</v>
+        <v>0.07876766354683466</v>
       </c>
       <c r="BN18" t="n">
-        <v>0.02725881548518436</v>
+        <v>0</v>
       </c>
       <c r="BO18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP18" t="n">
-        <v>0.08357587639251091</v>
+        <v>0.02291199456225952</v>
       </c>
       <c r="BQ18" t="n">
-        <v>-0</v>
+        <v>0.04873060413921415</v>
       </c>
       <c r="BR18" t="n">
         <v>-0</v>
@@ -10321,28 +10321,28 @@
         <v>0</v>
       </c>
       <c r="BT18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU18" t="n">
-        <v>0.1233375045894993</v>
+        <v>-0</v>
       </c>
       <c r="BV18" t="n">
-        <v>0</v>
+        <v>0.1126748613139538</v>
       </c>
       <c r="BW18" t="n">
-        <v>-0.01554531655748897</v>
+        <v>0</v>
       </c>
       <c r="BX18" t="n">
         <v>0</v>
       </c>
       <c r="BY18" t="n">
-        <v>-0.01053051102832163</v>
+        <v>-0.04893898196947579</v>
       </c>
       <c r="BZ18" t="n">
-        <v>-0</v>
+        <v>0.03737809055417811</v>
       </c>
       <c r="CA18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB18" t="n">
         <v>-0</v>
@@ -10351,310 +10351,310 @@
         <v>-0</v>
       </c>
       <c r="CD18" t="n">
-        <v>-0.07298276079102002</v>
+        <v>0</v>
       </c>
       <c r="CE18" t="n">
-        <v>0</v>
+        <v>-0.02940539454307428</v>
       </c>
       <c r="CF18" t="n">
-        <v>0.02259644196512076</v>
+        <v>-0</v>
       </c>
       <c r="CG18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH18" t="n">
-        <v>0.01249687711872093</v>
+        <v>0.0309151509785285</v>
       </c>
       <c r="CI18" t="n">
-        <v>-0</v>
+        <v>0.0250411190125365</v>
       </c>
       <c r="CJ18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK18" t="n">
         <v>0</v>
       </c>
       <c r="CL18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM18" t="n">
-        <v>0.01269376015553523</v>
+        <v>0</v>
       </c>
       <c r="CN18" t="n">
-        <v>0</v>
+        <v>-0.0179666522067183</v>
       </c>
       <c r="CO18" t="n">
-        <v>-0.01181834494540585</v>
+        <v>-0</v>
       </c>
       <c r="CP18" t="n">
         <v>-0</v>
       </c>
       <c r="CQ18" t="n">
-        <v>-0.07963645959383564</v>
+        <v>-4.561151097276335e-05</v>
       </c>
       <c r="CR18" t="n">
-        <v>0</v>
+        <v>-0.01600504611219118</v>
       </c>
       <c r="CS18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT18" t="n">
         <v>-0</v>
       </c>
       <c r="CU18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV18" t="n">
-        <v>-0.06077312288520701</v>
+        <v>-0</v>
       </c>
       <c r="CW18" t="n">
-        <v>-0</v>
+        <v>-0.01620070777641073</v>
       </c>
       <c r="CX18" t="n">
-        <v>0.02321718705801379</v>
+        <v>-0</v>
       </c>
       <c r="CY18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>-0.02149393803216392</v>
+        <v>0.02694675725802287</v>
       </c>
       <c r="DA18" t="n">
-        <v>0</v>
+        <v>0.03421060118063513</v>
       </c>
       <c r="DB18" t="n">
         <v>-0</v>
       </c>
       <c r="DC18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE18" t="n">
-        <v>0.006929824247194903</v>
+        <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>0</v>
+        <v>-0.0111150039466512</v>
       </c>
       <c r="DG18" t="n">
-        <v>0.01155754475773151</v>
+        <v>-0</v>
       </c>
       <c r="DH18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI18" t="n">
-        <v>0.0004199043836948768</v>
+        <v>9.67782159974669e-05</v>
       </c>
       <c r="DJ18" t="n">
-        <v>-0</v>
+        <v>-0.00500180872368541</v>
       </c>
       <c r="DK18" t="n">
         <v>0</v>
       </c>
       <c r="DL18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN18" t="n">
-        <v>0.01264212199487917</v>
+        <v>-0</v>
       </c>
       <c r="DO18" t="n">
-        <v>0</v>
+        <v>-0.01380028872847735</v>
       </c>
       <c r="DP18" t="n">
-        <v>-0.0005192443486275172</v>
+        <v>-0</v>
       </c>
       <c r="DQ18" t="n">
         <v>-0</v>
       </c>
       <c r="DR18" t="n">
-        <v>-0.02002552512015689</v>
+        <v>0.02775614369463671</v>
       </c>
       <c r="DS18" t="n">
-        <v>-0</v>
+        <v>-0.06716818585203729</v>
       </c>
       <c r="DT18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW18" t="n">
-        <v>0.01065753540322698</v>
+        <v>0</v>
       </c>
       <c r="DX18" t="n">
-        <v>-0</v>
+        <v>-0.00285769519505715</v>
       </c>
       <c r="DY18" t="n">
-        <v>-0.005017872175944849</v>
+        <v>0</v>
       </c>
       <c r="DZ18" t="n">
         <v>-0</v>
       </c>
       <c r="EA18" t="n">
-        <v>0.04012042285875046</v>
+        <v>-0.04397610274270195</v>
       </c>
       <c r="EB18" t="n">
-        <v>0</v>
+        <v>-0.04590124092600681</v>
       </c>
       <c r="EC18" t="n">
         <v>-0</v>
       </c>
       <c r="ED18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE18" t="n">
         <v>-0</v>
       </c>
       <c r="EF18" t="n">
-        <v>-0.1196793858761562</v>
+        <v>0</v>
       </c>
       <c r="EG18" t="n">
-        <v>0</v>
+        <v>-0.02769772108467808</v>
       </c>
       <c r="EH18" t="n">
-        <v>0.02591337623899159</v>
+        <v>-0</v>
       </c>
       <c r="EI18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ18" t="n">
-        <v>0.03741447317861948</v>
+        <v>0.02839591537173343</v>
       </c>
       <c r="EK18" t="n">
-        <v>-0</v>
+        <v>0.00930495645435931</v>
       </c>
       <c r="EL18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO18" t="n">
-        <v>-0.01912674049101737</v>
+        <v>0</v>
       </c>
       <c r="EP18" t="n">
-        <v>0</v>
+        <v>0.02638090981455998</v>
       </c>
       <c r="EQ18" t="n">
-        <v>0.01609828392939436</v>
+        <v>0</v>
       </c>
       <c r="ER18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES18" t="n">
-        <v>0.01227527482928646</v>
+        <v>0.01403687781609319</v>
       </c>
       <c r="ET18" t="n">
-        <v>-0</v>
+        <v>0.04397698384696186</v>
       </c>
       <c r="EU18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX18" t="n">
-        <v>-0.06256620409652885</v>
+        <v>0</v>
       </c>
       <c r="EY18" t="n">
-        <v>0</v>
+        <v>-0.01132767627824691</v>
       </c>
       <c r="EZ18" t="n">
-        <v>0.02214070069639881</v>
+        <v>-0</v>
       </c>
       <c r="FA18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB18" t="n">
-        <v>-0.01279307717225206</v>
+        <v>0.02443617732075927</v>
       </c>
       <c r="FC18" t="n">
-        <v>-0</v>
+        <v>0.03524169819173556</v>
       </c>
       <c r="FD18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE18" t="n">
         <v>0</v>
       </c>
       <c r="FF18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG18" t="n">
-        <v>-0.05375665925905635</v>
+        <v>0</v>
       </c>
       <c r="FH18" t="n">
-        <v>-0</v>
+        <v>-0.03457294477479812</v>
       </c>
       <c r="FI18" t="n">
-        <v>0.01578487917441544</v>
+        <v>-0</v>
       </c>
       <c r="FJ18" t="n">
         <v>-0</v>
       </c>
       <c r="FK18" t="n">
-        <v>-0.01808351860378072</v>
+        <v>-0.04036628164437629</v>
       </c>
       <c r="FL18" t="n">
-        <v>0</v>
+        <v>0.0198124890989361</v>
       </c>
       <c r="FM18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP18" t="n">
-        <v>-0.005090263884504746</v>
+        <v>0</v>
       </c>
       <c r="FQ18" t="n">
-        <v>0</v>
+        <v>-0.00393417539551533</v>
       </c>
       <c r="FR18" t="n">
-        <v>0.008065251830059387</v>
+        <v>0</v>
       </c>
       <c r="FS18" t="n">
         <v>-0</v>
       </c>
       <c r="FT18" t="n">
-        <v>-0.0008305053338741172</v>
+        <v>0.002428762810928466</v>
       </c>
       <c r="FU18" t="n">
-        <v>0</v>
+        <v>0.003165880712843979</v>
       </c>
       <c r="FV18" t="n">
         <v>-0</v>
       </c>
       <c r="FW18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY18" t="n">
-        <v>0.04843383170504093</v>
+        <v>-0</v>
       </c>
       <c r="FZ18" t="n">
-        <v>0</v>
+        <v>-0.02127528437329667</v>
       </c>
       <c r="GA18" t="n">
-        <v>-0.01325961165624927</v>
+        <v>0</v>
       </c>
       <c r="GB18" t="n">
         <v>0</v>
@@ -10663,7 +10663,7 @@
         <v>0</v>
       </c>
       <c r="GD18" t="n">
-        <v>-0</v>
+        <v>-0.04076222859661689</v>
       </c>
       <c r="GE18" t="n">
         <v>-0</v>
